--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>7314</v>
+        <v>10900</v>
       </c>
       <c r="C3" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="D3" s="3">
-        <v>26400</v>
+        <v>28200</v>
       </c>
       <c r="E3" s="3">
-        <v>41200</v>
+        <v>41400</v>
       </c>
       <c r="F3" s="3">
-        <v>51700</v>
+        <v>51800</v>
       </c>
       <c r="G3" s="3">
-        <v>54200</v>
+        <v>53900</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>958.398464</v>
+        <v>1428.160512</v>
       </c>
       <c r="C4" s="4">
-        <v>1825.570816</v>
+        <v>1876.95104</v>
       </c>
       <c r="D4" s="4">
-        <v>3463.446528</v>
+        <v>3702.521856</v>
       </c>
       <c r="E4" s="4">
-        <v>5395.972096</v>
+        <v>5423.235072</v>
       </c>
       <c r="F4" s="4">
-        <v>6774.849536</v>
+        <v>6795.821056</v>
       </c>
       <c r="G4" s="4">
-        <v>7098.85952</v>
+        <v>7064.256512</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>135.55</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="C5" s="4">
-        <v>140.76</v>
+        <v>137.61</v>
       </c>
       <c r="D5" s="4">
-        <v>148.17</v>
+        <v>138.18</v>
       </c>
       <c r="E5" s="4">
-        <v>185.47</v>
+        <v>184.08</v>
       </c>
       <c r="F5" s="4">
-        <v>298.48</v>
+        <v>297.8</v>
       </c>
       <c r="G5" s="4">
-        <v>578.83</v>
+        <v>579.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,13 +537,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D6" s="4">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E6" s="4">
         <v>338</v>
@@ -552,7 +552,7 @@
         <v>627</v>
       </c>
       <c r="G6" s="4">
-        <v>1254</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D7" s="4">
         <v>281</v>
@@ -572,10 +572,10 @@
         <v>388</v>
       </c>
       <c r="F7" s="4">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G7" s="4">
-        <v>1483</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="C12" s="3">
-        <v>50100</v>
+        <v>49500</v>
       </c>
       <c r="D12" s="3">
         <v>102000</v>
       </c>
       <c r="E12" s="3">
-        <v>215000</v>
+        <v>222000</v>
       </c>
       <c r="F12" s="3">
-        <v>387000</v>
+        <v>382000</v>
       </c>
       <c r="G12" s="3">
-        <v>636000</v>
+        <v>547000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>97.7272832</v>
+        <v>95.2107008</v>
       </c>
       <c r="C13" s="4">
-        <v>205.520896</v>
+        <v>202.375168</v>
       </c>
       <c r="D13" s="4">
         <v>419.4304</v>
       </c>
       <c r="E13" s="4">
-        <v>878.706688</v>
+        <v>908.066816</v>
       </c>
       <c r="F13" s="4">
-        <v>1584.398336</v>
+        <v>1563.426816</v>
       </c>
       <c r="G13" s="4">
-        <v>2604.662784</v>
+        <v>2240.806912</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>41.02474</v>
+        <v>42.26125</v>
       </c>
       <c r="C14" s="4">
-        <v>38.11348</v>
+        <v>39.61178</v>
       </c>
       <c r="D14" s="4">
-        <v>37.08512</v>
+        <v>35.99106</v>
       </c>
       <c r="E14" s="4">
-        <v>35.32131</v>
+        <v>33.33878</v>
       </c>
       <c r="F14" s="4">
-        <v>39.17995</v>
+        <v>39.28735</v>
       </c>
       <c r="G14" s="4">
-        <v>49.49196</v>
+        <v>55.54562000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>70.14400000000001</v>
+        <v>69.12</v>
       </c>
       <c r="C15" s="4">
-        <v>68.096</v>
+        <v>67.072</v>
       </c>
       <c r="D15" s="4">
-        <v>70.14400000000001</v>
+        <v>69.12</v>
       </c>
       <c r="E15" s="4">
-        <v>69.12</v>
+        <v>66.048</v>
       </c>
       <c r="F15" s="4">
-        <v>84.48</v>
+        <v>83.456</v>
       </c>
       <c r="G15" s="4">
-        <v>134.144</v>
+        <v>128.512</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>74.23999999999999</v>
+        <v>72.19200000000001</v>
       </c>
       <c r="C16" s="4">
         <v>72.19200000000001</v>
       </c>
       <c r="D16" s="4">
-        <v>80.384</v>
+        <v>77.312</v>
       </c>
       <c r="E16" s="4">
-        <v>82.432</v>
+        <v>79.36</v>
       </c>
       <c r="F16" s="4">
-        <v>108.032</v>
+        <v>107.008</v>
       </c>
       <c r="G16" s="4">
-        <v>189.44</v>
+        <v>168.96</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="C21" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="D21" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="E21" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="F21" s="3">
         <v>27300</v>
       </c>
       <c r="G21" s="3">
-        <v>27700</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1720.713216</v>
+        <v>1765.801984</v>
       </c>
       <c r="C22" s="4">
-        <v>2658.14016</v>
+        <v>2796.552192</v>
       </c>
       <c r="D22" s="4">
-        <v>3068.133376</v>
+        <v>2966.421504</v>
       </c>
       <c r="E22" s="4">
-        <v>3365.92896</v>
+        <v>3205.496832</v>
       </c>
       <c r="F22" s="4">
-        <v>3573.547008</v>
+        <v>3578.789888</v>
       </c>
       <c r="G22" s="4">
-        <v>3633.31584</v>
+        <v>3544.18688</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>39.47</v>
+        <v>30.26</v>
       </c>
       <c r="C23" s="4">
-        <v>27.01</v>
+        <v>27.91</v>
       </c>
       <c r="D23" s="4">
-        <v>32.9</v>
+        <v>37.11</v>
       </c>
       <c r="E23" s="4">
-        <v>43.93</v>
+        <v>60.05</v>
       </c>
       <c r="F23" s="4">
-        <v>83.22</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="G23" s="4">
-        <v>153.9</v>
+        <v>149.54</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <v>34</v>
       </c>
       <c r="D24" s="4">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F24" s="4">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G24" s="4">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C25" s="4">
         <v>145</v>
       </c>
       <c r="D25" s="4">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E25" s="4">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F25" s="4">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G25" s="4">
-        <v>338</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>386000</v>
+        <v>334000</v>
       </c>
       <c r="C30" s="3">
-        <v>533000</v>
+        <v>529000</v>
       </c>
       <c r="D30" s="3">
-        <v>679000</v>
+        <v>662000</v>
       </c>
       <c r="E30" s="3">
-        <v>778000</v>
+        <v>787000</v>
       </c>
       <c r="F30" s="3">
-        <v>747000</v>
+        <v>742000</v>
       </c>
       <c r="G30" s="3">
-        <v>838000</v>
+        <v>842000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>1579.155456</v>
+        <v>1369.440256</v>
       </c>
       <c r="C31" s="4">
-        <v>2182.086656</v>
+        <v>2165.30944</v>
       </c>
       <c r="D31" s="4">
-        <v>2781.872128</v>
+        <v>2711.617536</v>
       </c>
       <c r="E31" s="4">
-        <v>3186.622464</v>
+        <v>3224.3712</v>
       </c>
       <c r="F31" s="4">
-        <v>3058.696192</v>
+        <v>3037.724672</v>
       </c>
       <c r="G31" s="4">
-        <v>3430.940672</v>
+        <v>3449.81504</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>1.1328</v>
+        <v>1.45387</v>
       </c>
       <c r="C32" s="4">
-        <v>1.19576</v>
+        <v>1.20593</v>
       </c>
       <c r="D32" s="4">
-        <v>1.29701</v>
+        <v>1.31233</v>
       </c>
       <c r="E32" s="4">
-        <v>1.74332</v>
+        <v>1.70807</v>
       </c>
       <c r="F32" s="4">
-        <v>2.73804</v>
+        <v>2.71507</v>
       </c>
       <c r="G32" s="4">
-        <v>4.65728</v>
+        <v>4.70041</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>1.736</v>
+        <v>5.664</v>
       </c>
       <c r="C33" s="4">
         <v>1.912</v>
       </c>
       <c r="D33" s="4">
-        <v>2.008</v>
+        <v>2.024</v>
       </c>
       <c r="E33" s="4">
-        <v>2.928</v>
+        <v>2.8</v>
       </c>
       <c r="F33" s="4">
-        <v>4.704</v>
+        <v>4.64</v>
       </c>
       <c r="G33" s="4">
-        <v>6.56</v>
+        <v>6.624000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>6.432</v>
+        <v>6.88</v>
       </c>
       <c r="C34" s="4">
-        <v>6.624000000000001</v>
+        <v>6.688</v>
       </c>
       <c r="D34" s="4">
         <v>6.56</v>
       </c>
       <c r="E34" s="4">
-        <v>6.752</v>
+        <v>6.88</v>
       </c>
       <c r="F34" s="4">
-        <v>8.896000000000001</v>
+        <v>9.536</v>
       </c>
       <c r="G34" s="4">
-        <v>10.944</v>
+        <v>11.072</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1055,16 +1055,16 @@
         <v>16500</v>
       </c>
       <c r="C39" s="3">
-        <v>30100</v>
+        <v>34100</v>
       </c>
       <c r="D39" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="E39" s="3">
-        <v>43300</v>
+        <v>42900</v>
       </c>
       <c r="F39" s="3">
-        <v>41300</v>
+        <v>41200</v>
       </c>
       <c r="G39" s="3">
         <v>41700</v>
@@ -1078,16 +1078,16 @@
         <v>2165.30944</v>
       </c>
       <c r="C40" s="4">
-        <v>3947.88864</v>
+        <v>4474.273792</v>
       </c>
       <c r="D40" s="4">
-        <v>5650.776064</v>
+        <v>5592.055808</v>
       </c>
       <c r="E40" s="4">
-        <v>5681.184768</v>
+        <v>5621.415936</v>
       </c>
       <c r="F40" s="4">
-        <v>5409.603584</v>
+        <v>5395.972096</v>
       </c>
       <c r="G40" s="4">
         <v>5464.129536</v>
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>59.8</v>
+        <v>59.78</v>
       </c>
       <c r="C41" s="4">
-        <v>64.93000000000001</v>
+        <v>57.68</v>
       </c>
       <c r="D41" s="4">
-        <v>91.40000000000001</v>
+        <v>92.47</v>
       </c>
       <c r="E41" s="4">
-        <v>183.46</v>
+        <v>184.05</v>
       </c>
       <c r="F41" s="4">
-        <v>383.13</v>
+        <v>384.16</v>
       </c>
       <c r="G41" s="4">
-        <v>760.55</v>
+        <v>761.34</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C42" s="4">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D42" s="4">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E42" s="4">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="F42" s="4">
-        <v>1172</v>
+        <v>1287</v>
       </c>
       <c r="G42" s="4">
-        <v>2638</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C43" s="4">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D43" s="4">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E43" s="4">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F43" s="4">
-        <v>1319</v>
+        <v>1369</v>
       </c>
       <c r="G43" s="4">
-        <v>2802</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1198,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>520000</v>
+        <v>504000</v>
       </c>
       <c r="C48" s="3">
-        <v>799000</v>
+        <v>898000</v>
       </c>
       <c r="D48" s="3">
         <v>1016000</v>
@@ -1210,10 +1210,10 @@
         <v>1181000</v>
       </c>
       <c r="F48" s="3">
-        <v>1200000</v>
+        <v>1202000</v>
       </c>
       <c r="G48" s="3">
-        <v>1219000</v>
+        <v>1212000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,10 +1221,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>2130.706432</v>
+        <v>2064.646144</v>
       </c>
       <c r="C49" s="4">
-        <v>3273.654272</v>
+        <v>3677.356032</v>
       </c>
       <c r="D49" s="4">
         <v>4161.798144</v>
@@ -1233,10 +1233,10 @@
         <v>4837.081088</v>
       </c>
       <c r="F49" s="4">
-        <v>4913.627136</v>
+        <v>4925.161472</v>
       </c>
       <c r="G49" s="4">
-        <v>4994.367488</v>
+        <v>4965.00736</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>1.75524</v>
+        <v>1.80629</v>
       </c>
       <c r="C50" s="4">
-        <v>2.29437</v>
+        <v>2.10489</v>
       </c>
       <c r="D50" s="4">
-        <v>3.64751</v>
+        <v>3.67534</v>
       </c>
       <c r="E50" s="4">
-        <v>6.311680000000001</v>
+        <v>6.42747</v>
       </c>
       <c r="F50" s="4">
-        <v>12.85602</v>
+        <v>12.98542</v>
       </c>
       <c r="G50" s="4">
-        <v>25.72513</v>
+        <v>25.88689</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,22 +1267,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="C51" s="4">
-        <v>1.672</v>
+        <v>0.724</v>
       </c>
       <c r="D51" s="4">
         <v>1.672</v>
       </c>
       <c r="E51" s="4">
-        <v>2.576</v>
+        <v>1.704</v>
       </c>
       <c r="F51" s="4">
-        <v>2.416</v>
+        <v>1.512</v>
       </c>
       <c r="G51" s="4">
-        <v>2.576</v>
+        <v>1.912</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>32.128</v>
+        <v>36.608</v>
       </c>
       <c r="C52" s="4">
-        <v>92.672</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="D52" s="4">
-        <v>154.624</v>
+        <v>134.144</v>
       </c>
       <c r="E52" s="4">
-        <v>232.448</v>
+        <v>284.672</v>
       </c>
       <c r="F52" s="4">
-        <v>577.5360000000001</v>
+        <v>651.264</v>
       </c>
       <c r="G52" s="4">
-        <v>1138.688</v>
+        <v>741.376</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,19 +1344,19 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="C57" s="3">
         <v>14200</v>
       </c>
       <c r="D57" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="E57" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="F57" s="3">
-        <v>16900</v>
+        <v>16000</v>
       </c>
       <c r="G57" s="3">
         <v>17400</v>
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>1525.67808</v>
+        <v>1428.160512</v>
       </c>
       <c r="C58" s="4">
         <v>1864.368128</v>
       </c>
       <c r="D58" s="4">
-        <v>2165.30944</v>
+        <v>2155.872256</v>
       </c>
       <c r="E58" s="4">
-        <v>2319.450112</v>
+        <v>2344.615936</v>
       </c>
       <c r="F58" s="4">
-        <v>2218.786816</v>
+        <v>2225.078272</v>
       </c>
       <c r="G58" s="4">
-        <v>2280.6528</v>
+        <v>2279.604224</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>26.17</v>
+        <v>26.55886</v>
       </c>
       <c r="C59" s="4">
-        <v>27.69</v>
+        <v>28.17</v>
       </c>
       <c r="D59" s="4">
-        <v>32.71</v>
+        <v>30.47381</v>
       </c>
       <c r="E59" s="4">
-        <v>42.86</v>
+        <v>42.51</v>
       </c>
       <c r="F59" s="4">
-        <v>81.23</v>
+        <v>81.69</v>
       </c>
       <c r="G59" s="4">
-        <v>140.31</v>
+        <v>138.32</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>27</v>
+        <v>55.04</v>
       </c>
       <c r="C60" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="4">
-        <v>36</v>
+        <v>38.144</v>
       </c>
       <c r="E60" s="4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" s="4">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G60" s="4">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>112</v>
+        <v>63.232</v>
       </c>
       <c r="C61" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D61" s="4">
-        <v>117</v>
+        <v>45.312</v>
       </c>
       <c r="E61" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F61" s="4">
         <v>178</v>
       </c>
       <c r="G61" s="4">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>321000</v>
+        <v>334000</v>
       </c>
       <c r="C66" s="3">
-        <v>415000</v>
+        <v>417000</v>
       </c>
       <c r="D66" s="3">
-        <v>504000</v>
+        <v>500000</v>
       </c>
       <c r="E66" s="3">
-        <v>552000</v>
+        <v>557000</v>
       </c>
       <c r="F66" s="3">
-        <v>529000</v>
+        <v>583000</v>
       </c>
       <c r="G66" s="3">
-        <v>553000</v>
+        <v>558000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>1315.96288</v>
+        <v>1369.440256</v>
       </c>
       <c r="C67" s="4">
-        <v>1698.69312</v>
+        <v>1710.227456</v>
       </c>
       <c r="D67" s="4">
-        <v>2064.646144</v>
+        <v>2048.917504</v>
       </c>
       <c r="E67" s="4">
-        <v>2260.729856</v>
+        <v>2279.604224</v>
       </c>
       <c r="F67" s="4">
-        <v>2167.406592</v>
+        <v>2386.558976</v>
       </c>
       <c r="G67" s="4">
-        <v>2263.875584</v>
+        <v>2285.89568</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>0.98603</v>
+        <v>0.90073</v>
       </c>
       <c r="C68" s="4">
-        <v>1.05996</v>
+        <v>1.03875</v>
       </c>
       <c r="D68" s="4">
-        <v>1.11285</v>
+        <v>1.11355</v>
       </c>
       <c r="E68" s="4">
-        <v>1.37136</v>
+        <v>1.39333</v>
       </c>
       <c r="F68" s="4">
-        <v>2.47946</v>
+        <v>2.50539</v>
       </c>
       <c r="G68" s="4">
-        <v>4.26153</v>
+        <v>4.08878</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>1.496</v>
+        <v>1.304</v>
       </c>
       <c r="C69" s="4">
-        <v>1.848</v>
+        <v>1.96</v>
       </c>
       <c r="D69" s="4">
-        <v>2.576</v>
+        <v>2.064</v>
       </c>
       <c r="E69" s="4">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="F69" s="4">
-        <v>4.32</v>
+        <v>4.64</v>
       </c>
       <c r="G69" s="4">
-        <v>6.048</v>
+        <v>5.792</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>4.256</v>
+        <v>2.416</v>
       </c>
       <c r="C70" s="4">
-        <v>4.32</v>
+        <v>2.928</v>
       </c>
       <c r="D70" s="4">
-        <v>3.984</v>
+        <v>3.184</v>
       </c>
       <c r="E70" s="4">
-        <v>4.832</v>
+        <v>5.024</v>
       </c>
       <c r="F70" s="4">
-        <v>8.384</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="G70" s="4">
-        <v>12.608</v>
+        <v>12.864</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="C3" s="3">
-        <v>14300</v>
+        <v>21800</v>
       </c>
       <c r="D3" s="3">
-        <v>28200</v>
+        <v>35600</v>
       </c>
       <c r="E3" s="3">
-        <v>41400</v>
+        <v>47400</v>
       </c>
       <c r="F3" s="3">
-        <v>51800</v>
+        <v>53500</v>
       </c>
       <c r="G3" s="3">
-        <v>53900</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1428.160512</v>
+        <v>1458.569216</v>
       </c>
       <c r="C4" s="4">
-        <v>1876.95104</v>
+        <v>2855.272448</v>
       </c>
       <c r="D4" s="4">
-        <v>3702.521856</v>
+        <v>4668.260352</v>
       </c>
       <c r="E4" s="4">
-        <v>5423.235072</v>
+        <v>6206.521344</v>
       </c>
       <c r="F4" s="4">
-        <v>6795.821056</v>
+        <v>7018.119168</v>
       </c>
       <c r="G4" s="4">
-        <v>7064.256512</v>
+        <v>7110.393856</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>91.65000000000001</v>
+        <v>88.73</v>
       </c>
       <c r="C5" s="4">
-        <v>137.61</v>
+        <v>90.03</v>
       </c>
       <c r="D5" s="4">
-        <v>138.18</v>
+        <v>110.37</v>
       </c>
       <c r="E5" s="4">
-        <v>184.08</v>
+        <v>165.62</v>
       </c>
       <c r="F5" s="4">
-        <v>297.8</v>
+        <v>293.46</v>
       </c>
       <c r="G5" s="4">
-        <v>579.08</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D6" s="4">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="E6" s="4">
         <v>338</v>
       </c>
       <c r="F6" s="4">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="G6" s="4">
-        <v>1221</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="D7" s="4">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="E7" s="4">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="F7" s="4">
-        <v>791</v>
+        <v>840</v>
       </c>
       <c r="G7" s="4">
-        <v>1467</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>23200</v>
+        <v>29900</v>
       </c>
       <c r="C12" s="3">
-        <v>49500</v>
+        <v>64900</v>
       </c>
       <c r="D12" s="3">
-        <v>102000</v>
+        <v>136000</v>
       </c>
       <c r="E12" s="3">
-        <v>222000</v>
+        <v>257000</v>
       </c>
       <c r="F12" s="3">
-        <v>382000</v>
+        <v>450000</v>
       </c>
       <c r="G12" s="3">
-        <v>547000</v>
+        <v>642000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>95.2107008</v>
+        <v>122.683392</v>
       </c>
       <c r="C13" s="4">
-        <v>202.375168</v>
+        <v>265.289728</v>
       </c>
       <c r="D13" s="4">
-        <v>419.4304</v>
+        <v>558.8910080000001</v>
       </c>
       <c r="E13" s="4">
-        <v>908.066816</v>
+        <v>1053.81888</v>
       </c>
       <c r="F13" s="4">
-        <v>1563.426816</v>
+        <v>1841.299456</v>
       </c>
       <c r="G13" s="4">
-        <v>2240.806912</v>
+        <v>2629.828608</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>42.26125</v>
+        <v>33.02207</v>
       </c>
       <c r="C14" s="4">
-        <v>39.61178</v>
+        <v>30.53375</v>
       </c>
       <c r="D14" s="4">
-        <v>35.99106</v>
+        <v>28.91772</v>
       </c>
       <c r="E14" s="4">
-        <v>33.33878</v>
+        <v>29.96353</v>
       </c>
       <c r="F14" s="4">
-        <v>39.28735</v>
+        <v>34.77941000000001</v>
       </c>
       <c r="G14" s="4">
-        <v>55.54562000000001</v>
+        <v>49.09805</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>69.12</v>
+        <v>67.072</v>
       </c>
       <c r="C15" s="4">
-        <v>67.072</v>
+        <v>62.208</v>
       </c>
       <c r="D15" s="4">
-        <v>69.12</v>
+        <v>58.112</v>
       </c>
       <c r="E15" s="4">
-        <v>66.048</v>
+        <v>62.72</v>
       </c>
       <c r="F15" s="4">
-        <v>83.456</v>
+        <v>81.408</v>
       </c>
       <c r="G15" s="4">
-        <v>128.512</v>
+        <v>134.144</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>72.19200000000001</v>
+        <v>71.16800000000001</v>
       </c>
       <c r="C16" s="4">
-        <v>72.19200000000001</v>
+        <v>71.16800000000001</v>
       </c>
       <c r="D16" s="4">
-        <v>77.312</v>
+        <v>73.21600000000001</v>
       </c>
       <c r="E16" s="4">
-        <v>79.36</v>
+        <v>78.336</v>
       </c>
       <c r="F16" s="4">
-        <v>107.008</v>
+        <v>109.056</v>
       </c>
       <c r="G16" s="4">
-        <v>168.96</v>
+        <v>189.44</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>13500</v>
+        <v>15300</v>
       </c>
       <c r="C21" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="D21" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="E21" s="3">
-        <v>24500</v>
+        <v>26600</v>
       </c>
       <c r="F21" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="G21" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1765.801984</v>
+        <v>2002.78016</v>
       </c>
       <c r="C22" s="4">
-        <v>2796.552192</v>
+        <v>2711.617536</v>
       </c>
       <c r="D22" s="4">
-        <v>2966.421504</v>
+        <v>3050.307584</v>
       </c>
       <c r="E22" s="4">
-        <v>3205.496832</v>
+        <v>3486.5152</v>
       </c>
       <c r="F22" s="4">
-        <v>3578.789888</v>
+        <v>3469.737984</v>
       </c>
       <c r="G22" s="4">
-        <v>3544.18688</v>
+        <v>3602.907136</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>30.26</v>
+        <v>24.72</v>
       </c>
       <c r="C23" s="4">
-        <v>27.91</v>
+        <v>26.99</v>
       </c>
       <c r="D23" s="4">
-        <v>37.11</v>
+        <v>32.27</v>
       </c>
       <c r="E23" s="4">
-        <v>60.05</v>
+        <v>40.63</v>
       </c>
       <c r="F23" s="4">
-        <v>82.79000000000001</v>
+        <v>82.63</v>
       </c>
       <c r="G23" s="4">
-        <v>149.54</v>
+        <v>182.2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E24" s="4">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G24" s="4">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="C25" s="4">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4">
+        <v>97</v>
+      </c>
+      <c r="F25" s="4">
         <v>172</v>
       </c>
-      <c r="F25" s="4">
-        <v>225</v>
-      </c>
       <c r="G25" s="4">
-        <v>383</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>334000</v>
+        <v>405000</v>
       </c>
       <c r="C30" s="3">
-        <v>529000</v>
+        <v>560000</v>
       </c>
       <c r="D30" s="3">
-        <v>662000</v>
+        <v>672000</v>
       </c>
       <c r="E30" s="3">
-        <v>787000</v>
+        <v>790000</v>
       </c>
       <c r="F30" s="3">
-        <v>742000</v>
+        <v>803000</v>
       </c>
       <c r="G30" s="3">
-        <v>842000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>1369.440256</v>
+        <v>1656.75008</v>
       </c>
       <c r="C31" s="4">
-        <v>2165.30944</v>
+        <v>2294.284288</v>
       </c>
       <c r="D31" s="4">
-        <v>2711.617536</v>
+        <v>2753.560576</v>
       </c>
       <c r="E31" s="4">
-        <v>3224.3712</v>
+        <v>3233.808384</v>
       </c>
       <c r="F31" s="4">
-        <v>3037.724672</v>
+        <v>3288.334336</v>
       </c>
       <c r="G31" s="4">
-        <v>3449.81504</v>
+        <v>3400.531968</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>1.45387</v>
+        <v>1.02821</v>
       </c>
       <c r="C32" s="4">
-        <v>1.20593</v>
+        <v>1.14414</v>
       </c>
       <c r="D32" s="4">
-        <v>1.31233</v>
+        <v>1.26034</v>
       </c>
       <c r="E32" s="4">
-        <v>1.70807</v>
+        <v>1.63246</v>
       </c>
       <c r="F32" s="4">
-        <v>2.71507</v>
+        <v>2.70891</v>
       </c>
       <c r="G32" s="4">
-        <v>4.70041</v>
+        <v>4.78694</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>5.664</v>
+        <v>1.688</v>
       </c>
       <c r="C33" s="4">
-        <v>1.912</v>
+        <v>1.944</v>
       </c>
       <c r="D33" s="4">
-        <v>2.024</v>
+        <v>1.992</v>
       </c>
       <c r="E33" s="4">
         <v>2.8</v>
       </c>
       <c r="F33" s="4">
-        <v>4.64</v>
+        <v>4.576000000000001</v>
       </c>
       <c r="G33" s="4">
-        <v>6.624000000000001</v>
+        <v>6.112</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>6.88</v>
+        <v>2.04</v>
       </c>
       <c r="C34" s="4">
-        <v>6.688</v>
+        <v>2.416</v>
       </c>
       <c r="D34" s="4">
+        <v>6.496</v>
+      </c>
+      <c r="E34" s="4">
         <v>6.56</v>
       </c>
-      <c r="E34" s="4">
-        <v>6.88</v>
-      </c>
       <c r="F34" s="4">
-        <v>9.536</v>
+        <v>6.368</v>
       </c>
       <c r="G34" s="4">
-        <v>11.072</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="C39" s="3">
-        <v>34100</v>
+        <v>30100</v>
       </c>
       <c r="D39" s="3">
-        <v>42700</v>
+        <v>43100</v>
       </c>
       <c r="E39" s="3">
-        <v>42900</v>
+        <v>43100</v>
       </c>
       <c r="F39" s="3">
-        <v>41200</v>
+        <v>41300</v>
       </c>
       <c r="G39" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>2165.30944</v>
+        <v>2199.912448</v>
       </c>
       <c r="C40" s="4">
-        <v>4474.273792</v>
+        <v>3947.88864</v>
       </c>
       <c r="D40" s="4">
-        <v>5592.055808</v>
+        <v>5650.776064</v>
       </c>
       <c r="E40" s="4">
-        <v>5621.415936</v>
+        <v>5650.776064</v>
       </c>
       <c r="F40" s="4">
-        <v>5395.972096</v>
+        <v>5409.603584</v>
       </c>
       <c r="G40" s="4">
-        <v>5464.129536</v>
+        <v>5477.761024</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>59.78</v>
+        <v>58.94</v>
       </c>
       <c r="C41" s="4">
-        <v>57.68</v>
+        <v>64.8</v>
       </c>
       <c r="D41" s="4">
-        <v>92.47</v>
+        <v>91.79000000000001</v>
       </c>
       <c r="E41" s="4">
-        <v>184.05</v>
+        <v>184.51</v>
       </c>
       <c r="F41" s="4">
-        <v>384.16</v>
+        <v>384.97</v>
       </c>
       <c r="G41" s="4">
-        <v>761.34</v>
+        <v>763.27</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C42" s="4">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D42" s="4">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="E42" s="4">
-        <v>437</v>
+        <v>619</v>
       </c>
       <c r="F42" s="4">
-        <v>1287</v>
+        <v>1237</v>
       </c>
       <c r="G42" s="4">
-        <v>2671</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C43" s="4">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D43" s="4">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="E43" s="4">
-        <v>562</v>
+        <v>668</v>
       </c>
       <c r="F43" s="4">
-        <v>1369</v>
+        <v>1303</v>
       </c>
       <c r="G43" s="4">
-        <v>2835</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1201,19 +1201,19 @@
         <v>504000</v>
       </c>
       <c r="C48" s="3">
-        <v>898000</v>
+        <v>819000</v>
       </c>
       <c r="D48" s="3">
         <v>1016000</v>
       </c>
       <c r="E48" s="3">
-        <v>1181000</v>
+        <v>1192000</v>
       </c>
       <c r="F48" s="3">
-        <v>1202000</v>
+        <v>1194000</v>
       </c>
       <c r="G48" s="3">
-        <v>1212000</v>
+        <v>1209000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1224,19 +1224,19 @@
         <v>2064.646144</v>
       </c>
       <c r="C49" s="4">
-        <v>3677.356032</v>
+        <v>3355.4432</v>
       </c>
       <c r="D49" s="4">
         <v>4161.798144</v>
       </c>
       <c r="E49" s="4">
-        <v>4837.081088</v>
+        <v>4881.12128</v>
       </c>
       <c r="F49" s="4">
-        <v>4925.161472</v>
+        <v>4891.60704</v>
       </c>
       <c r="G49" s="4">
-        <v>4965.00736</v>
+        <v>4953.473024</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>1.80629</v>
+        <v>1.79213</v>
       </c>
       <c r="C50" s="4">
-        <v>2.10489</v>
+        <v>2.21069</v>
       </c>
       <c r="D50" s="4">
-        <v>3.67534</v>
+        <v>3.71624</v>
       </c>
       <c r="E50" s="4">
-        <v>6.42747</v>
+        <v>6.49196</v>
       </c>
       <c r="F50" s="4">
-        <v>12.98542</v>
+        <v>13.15099</v>
       </c>
       <c r="G50" s="4">
-        <v>25.88689</v>
+        <v>26.24566</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1270,19 +1270,19 @@
         <v>1.64</v>
       </c>
       <c r="C51" s="4">
-        <v>0.724</v>
+        <v>1.672</v>
       </c>
       <c r="D51" s="4">
-        <v>1.672</v>
+        <v>1.656</v>
       </c>
       <c r="E51" s="4">
-        <v>1.704</v>
+        <v>0.972</v>
       </c>
       <c r="F51" s="4">
-        <v>1.512</v>
+        <v>1.656</v>
       </c>
       <c r="G51" s="4">
-        <v>1.912</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>36.608</v>
+        <v>31.36</v>
       </c>
       <c r="C52" s="4">
-        <v>89.60000000000001</v>
+        <v>46.848</v>
       </c>
       <c r="D52" s="4">
-        <v>134.144</v>
+        <v>154.624</v>
       </c>
       <c r="E52" s="4">
-        <v>284.672</v>
+        <v>325.632</v>
       </c>
       <c r="F52" s="4">
-        <v>651.264</v>
+        <v>552.96</v>
       </c>
       <c r="G52" s="4">
-        <v>741.376</v>
+        <v>528.384</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="C57" s="3">
         <v>14200</v>
       </c>
       <c r="D57" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E57" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="F57" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="G57" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>1428.160512</v>
+        <v>1384.12032</v>
       </c>
       <c r="C58" s="4">
         <v>1864.368128</v>
       </c>
       <c r="D58" s="4">
-        <v>2155.872256</v>
+        <v>2139.09504</v>
       </c>
       <c r="E58" s="4">
-        <v>2344.615936</v>
+        <v>2284.847104</v>
       </c>
       <c r="F58" s="4">
-        <v>2225.078272</v>
+        <v>2182.086656</v>
       </c>
       <c r="G58" s="4">
-        <v>2279.604224</v>
+        <v>2264.92416</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>26.55886</v>
+        <v>26.19</v>
       </c>
       <c r="C59" s="4">
-        <v>28.17</v>
+        <v>27.64</v>
       </c>
       <c r="D59" s="4">
-        <v>30.47381</v>
+        <v>31.97</v>
       </c>
       <c r="E59" s="4">
-        <v>42.51</v>
+        <v>41.68</v>
       </c>
       <c r="F59" s="4">
-        <v>81.69</v>
+        <v>80.75</v>
       </c>
       <c r="G59" s="4">
-        <v>138.32</v>
+        <v>144.36</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>55.04</v>
+        <v>101</v>
       </c>
       <c r="C60" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D60" s="4">
-        <v>38.144</v>
+        <v>44</v>
       </c>
       <c r="E60" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F60" s="4">
         <v>123</v>
       </c>
       <c r="G60" s="4">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>63.232</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4">
+        <v>114</v>
+      </c>
+      <c r="D61" s="4">
         <v>116</v>
       </c>
-      <c r="D61" s="4">
-        <v>45.312</v>
-      </c>
       <c r="E61" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F61" s="4">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G61" s="4">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>334000</v>
+        <v>306000</v>
       </c>
       <c r="C66" s="3">
-        <v>417000</v>
+        <v>415000</v>
       </c>
       <c r="D66" s="3">
-        <v>500000</v>
+        <v>504000</v>
       </c>
       <c r="E66" s="3">
-        <v>557000</v>
+        <v>545000</v>
       </c>
       <c r="F66" s="3">
-        <v>583000</v>
+        <v>480000</v>
       </c>
       <c r="G66" s="3">
-        <v>558000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>1369.440256</v>
+        <v>1254.096896</v>
       </c>
       <c r="C67" s="4">
-        <v>1710.227456</v>
+        <v>1698.69312</v>
       </c>
       <c r="D67" s="4">
-        <v>2048.917504</v>
+        <v>2064.646144</v>
       </c>
       <c r="E67" s="4">
-        <v>2279.604224</v>
+        <v>2232.418304</v>
       </c>
       <c r="F67" s="4">
-        <v>2386.558976</v>
+        <v>1965.031424</v>
       </c>
       <c r="G67" s="4">
-        <v>2285.89568</v>
+        <v>2360.344576</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>0.90073</v>
+        <v>0.99087</v>
       </c>
       <c r="C68" s="4">
-        <v>1.03875</v>
+        <v>1.06328</v>
       </c>
       <c r="D68" s="4">
-        <v>1.11355</v>
+        <v>1.08183</v>
       </c>
       <c r="E68" s="4">
-        <v>1.39333</v>
+        <v>1.35185</v>
       </c>
       <c r="F68" s="4">
-        <v>2.50539</v>
+        <v>2.47791</v>
       </c>
       <c r="G68" s="4">
-        <v>4.08878</v>
+        <v>4.2743</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>1.304</v>
+        <v>1.496</v>
       </c>
       <c r="C69" s="4">
-        <v>1.96</v>
+        <v>1.688</v>
       </c>
       <c r="D69" s="4">
-        <v>2.064</v>
+        <v>1.736</v>
       </c>
       <c r="E69" s="4">
-        <v>2.8</v>
+        <v>2.448</v>
       </c>
       <c r="F69" s="4">
-        <v>4.64</v>
+        <v>4.512</v>
       </c>
       <c r="G69" s="4">
-        <v>5.792</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>2.416</v>
+        <v>4.192</v>
       </c>
       <c r="C70" s="4">
-        <v>2.928</v>
+        <v>4.384</v>
       </c>
       <c r="D70" s="4">
-        <v>3.184</v>
+        <v>4.256</v>
       </c>
       <c r="E70" s="4">
-        <v>5.024</v>
+        <v>4.448</v>
       </c>
       <c r="F70" s="4">
-        <v>8.768000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="G70" s="4">
-        <v>12.864</v>
+        <v>10.304</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="busy" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="idle" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +437,31 @@
           <t>lat_avg(ns)</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>BW(MiB/s)</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>lat_avg(ns)</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>lat_p95(ns)</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>lat_p99(ns)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="n">
@@ -476,6 +500,60 @@
       <c r="N2" t="n">
         <v>4</v>
       </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,6 +566,16 @@
           <t>bs</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>workload</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>bs</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +624,70 @@
       <c r="N4" t="n">
         <v>386.48</v>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>randread</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>380</v>
+      </c>
+      <c r="W4" t="n">
+        <v>705</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1011</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1249</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3038</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5641</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8084</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9990</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>328.52</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>352.26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>364.82</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>381.4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
+      </c>
+      <c r="AJ4" t="n">
+        <v/>
+      </c>
+      <c r="AK4" t="n">
+        <v/>
+      </c>
+      <c r="AL4" t="n">
+        <v/>
+      </c>
+      <c r="AM4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -579,6 +731,65 @@
       <c r="N5" t="n">
         <v>21505.17</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v>5818</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5720.45</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10969.64</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15906</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>21039.03</v>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
+      </c>
+      <c r="AJ5" t="n">
+        <v/>
+      </c>
+      <c r="AK5" t="n">
+        <v/>
+      </c>
+      <c r="AL5" t="n">
+        <v/>
+      </c>
+      <c r="AM5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -627,6 +838,70 @@
       <c r="N6" t="n">
         <v>57.42</v>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>randwrite</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>186</v>
+      </c>
+      <c r="W6" t="n">
+        <v>197</v>
+      </c>
+      <c r="X6" t="n">
+        <v>249</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>290</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1484</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1572</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2323</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>61.78</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>59.39</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
+      </c>
+      <c r="AJ6" t="n">
+        <v/>
+      </c>
+      <c r="AK6" t="n">
+        <v/>
+      </c>
+      <c r="AL6" t="n">
+        <v/>
+      </c>
+      <c r="AM6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -670,6 +945,65 @@
       <c r="N7" t="n">
         <v>2477.47</v>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v>140</v>
+      </c>
+      <c r="X7" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>185</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>47</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>30723</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>60528</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>82994</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>107703</v>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
+      </c>
+      <c r="AJ7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,6 +1052,70 @@
       <c r="N8" t="n">
         <v>243.25</v>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>703</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1320</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1882</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5626</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>177.08</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>188.33</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>196.99</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>245.16</v>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AJ8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
@@ -761,6 +1159,65 @@
       <c r="N9" t="n">
         <v>7853.38</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>865</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1191</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1730</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1962</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>221000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>305000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>443000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>502000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4408.42</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>6445.61</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6627.87</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7802.57</v>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AJ9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,6 +1266,70 @@
       <c r="N10" t="n">
         <v>52.51</v>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>790</v>
+      </c>
+      <c r="W10" t="n">
+        <v>892</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1662</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6320</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7135</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8982</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>34161.27</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>37817.43</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41990.04</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>37120</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>43776</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>47872</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>39680</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>59136</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>67072</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -852,626 +1373,63 @@
       <c r="N11" t="n">
         <v>2166.54</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BW(MiB/s)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>lat_avg(ns)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>lat_p95(ns)</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>lat_p99(ns)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>workload</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bs</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>randread</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>380</v>
-      </c>
-      <c r="D4" t="n">
-        <v>705</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1011</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1249</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3038</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5641</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8084</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9990</v>
-      </c>
-      <c r="K4" t="n">
-        <v>328.52</v>
-      </c>
-      <c r="L4" t="n">
-        <v>352.26</v>
-      </c>
-      <c r="M4" t="n">
-        <v>364.82</v>
-      </c>
-      <c r="N4" t="n">
-        <v>381.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>4k</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-      <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" t="n">
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v>5818</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>21</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5720.45</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10969.64</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15906</v>
-      </c>
-      <c r="N5" t="n">
-        <v>21039.03</v>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>randwrite</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>186</v>
-      </c>
-      <c r="D6" t="n">
-        <v>197</v>
-      </c>
-      <c r="E6" t="n">
-        <v>249</v>
-      </c>
-      <c r="F6" t="n">
-        <v>290</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1484</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1572</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1989</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2323</v>
-      </c>
-      <c r="K6" t="n">
-        <v>61.78</v>
-      </c>
-      <c r="L6" t="n">
-        <v>59.39</v>
-      </c>
-      <c r="M6" t="n">
-        <v>61.27</v>
-      </c>
-      <c r="N6" t="n">
-        <v>69.94</v>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v>140</v>
-      </c>
-      <c r="E7" t="n">
-        <v>150</v>
-      </c>
-      <c r="F7" t="n">
-        <v>185</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
-      <c r="H7" t="n">
-        <v>35</v>
-      </c>
-      <c r="I7" t="n">
-        <v>38</v>
-      </c>
-      <c r="J7" t="n">
-        <v>47</v>
-      </c>
-      <c r="K7" t="n">
-        <v>30723</v>
-      </c>
-      <c r="L7" t="n">
-        <v>60528</v>
-      </c>
-      <c r="M7" t="n">
-        <v>82994</v>
-      </c>
-      <c r="N7" t="n">
-        <v>107703</v>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>703</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1320</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1882</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5626</v>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>16</v>
-      </c>
-      <c r="K8" t="n">
-        <v>177.08</v>
-      </c>
-      <c r="L8" t="n">
-        <v>188.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>196.99</v>
-      </c>
-      <c r="N8" t="n">
-        <v>245.16</v>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>865</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1191</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1962</v>
-      </c>
-      <c r="G9" t="n">
-        <v>221000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>305000</v>
-      </c>
-      <c r="I9" t="n">
-        <v>443000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>502000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4408.42</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6445.61</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6627.87</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7802.57</v>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>790</v>
-      </c>
-      <c r="D10" t="n">
-        <v>892</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1123</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1662</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6320</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7135</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8982</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13</v>
-      </c>
-      <c r="K10" t="n">
-        <v>34161.27</v>
-      </c>
-      <c r="L10" t="n">
-        <v>37817.43</v>
-      </c>
-      <c r="M10" t="n">
-        <v>41990.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>47.84</v>
-      </c>
-      <c r="O10" t="n">
-        <v>37120</v>
-      </c>
-      <c r="P10" t="n">
-        <v>43776</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>47872</v>
-      </c>
-      <c r="R10" t="n">
-        <v>39680</v>
-      </c>
-      <c r="S10" t="n">
-        <v>59136</v>
-      </c>
-      <c r="T10" t="n">
-        <v>67072</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="V11" t="n">
         <v>557</v>
       </c>
-      <c r="D11" t="n">
+      <c r="W11" t="n">
         <v>1028</v>
       </c>
-      <c r="E11" t="n">
+      <c r="X11" t="n">
         <v>982</v>
       </c>
-      <c r="F11" t="n">
+      <c r="Y11" t="n">
         <v>1243</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Z11" t="n">
         <v>142000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="AA11" t="n">
         <v>263000</v>
       </c>
-      <c r="I11" t="n">
+      <c r="AB11" t="n">
         <v>251000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="AC11" t="n">
         <v>318000</v>
       </c>
-      <c r="K11" t="n">
+      <c r="AD11" t="n">
         <v>1236.17</v>
       </c>
-      <c r="L11" t="n">
+      <c r="AE11" t="n">
         <v>1481.27</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AF11" t="n">
         <v>1474.04</v>
       </c>
-      <c r="N11" t="n">
+      <c r="AG11" t="n">
         <v>1577.2</v>
       </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="R11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AJ11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="n">
+        <v/>
+      </c>
+      <c r="AL11" t="n">
+        <v/>
+      </c>
+      <c r="AM11" t="n">
         <v/>
       </c>
     </row>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -442,18 +442,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randread_4k</t>
+          <t>8,10,12,14_randread_4k</t>
         </is>
       </c>
     </row>
@@ -478,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5714</v>
+        <v>5818</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21600</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="4">
@@ -497,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>45.7</v>
+        <v>46.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>67.8</v>
+        <v>68.2</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>88.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -516,22 +523,22 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>174.74983</v>
+        <v>171.70989</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>178.76486</v>
+        <v>176.01606</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>180.70354</v>
+        <v>179.54562</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>184.40112</v>
+        <v>182.23684</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randread_128k</t>
+          <t>8,10,12,14_randread_128k</t>
         </is>
       </c>
     </row>
@@ -556,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>2976</v>
+        <v>3038</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5535</v>
+        <v>5641</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>7897</v>
+        <v>8084</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>10200</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="12">
@@ -575,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1035</v>
+        <v>1060</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1342</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="13">
@@ -594,22 +601,22 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>334.88</v>
+        <v>328.5</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>360.47</v>
+        <v>352.23</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>375.48</v>
+        <v>364.8</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>386.45</v>
+        <v>381.38</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randwrite_4k</t>
+          <t>8,10,12,14_randwrite_4k</t>
         </is>
       </c>
     </row>
@@ -634,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>37800</v>
+        <v>17700</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>28600</v>
+        <v>35800</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>41700</v>
+        <v>38300</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>70400</v>
+        <v>47200</v>
       </c>
     </row>
     <row r="20">
@@ -653,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>155</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>288</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
@@ -672,22 +679,22 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>2.79167</v>
+        <v>27.2554</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>25.51849</v>
+        <v>28.1189</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>23.20088</v>
+        <v>28.55453</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>2.45775</v>
+        <v>28.997</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randwrite_128k</t>
+          <t>8,10,12,14_randwrite_128k</t>
         </is>
       </c>
     </row>
@@ -712,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1508</v>
+        <v>1484</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>1546</v>
+        <v>1572</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>1862</v>
+        <v>1989</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>2067</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="28">
@@ -731,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>271</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
@@ -750,22 +757,22 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>108.79</v>
+        <v>61.33</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>69.8</v>
+        <v>58.93</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>67.29000000000001</v>
+        <v>60.81</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>56.96</v>
+        <v>69.48</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_read_4k</t>
+          <t>8,10,12,14_read_4k</t>
         </is>
       </c>
     </row>
@@ -790,13 +797,13 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>231000</v>
+        <v>221000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>324000</v>
+        <v>305000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>429000</v>
+        <v>443000</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>502000</v>
@@ -809,13 +816,13 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>945</v>
+        <v>907</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1758</v>
+        <v>1814</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>2057</v>
@@ -828,22 +835,22 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>4.19258</v>
+        <v>4.39508</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>6.03486</v>
+        <v>6.43238</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>6.85142</v>
+        <v>6.61436</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>7.83961</v>
+        <v>7.78851</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_read_128k</t>
+          <t>8,10,12,14_read_128k</t>
         </is>
       </c>
     </row>
@@ -868,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>5885</v>
+        <v>5626</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>13900</v>
+        <v>15100</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>16300</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="44">
@@ -887,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1363</v>
+        <v>1384</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1822</v>
+        <v>1974</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2139</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="45">
@@ -906,22 +913,22 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>168.7</v>
+        <v>177.06</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>186.45</v>
+        <v>188.31</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>213.89</v>
+        <v>196.97</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>243.23</v>
+        <v>245.14</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_write_4k</t>
+          <t>8,10,12,14_write_4k</t>
         </is>
       </c>
     </row>
@@ -946,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>129000</v>
+        <v>142000</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>180000</v>
+        <v>263000</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>246000</v>
+        <v>251000</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>274000</v>
+        <v>318000</v>
       </c>
     </row>
     <row r="52">
@@ -965,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>737</v>
+        <v>1078</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1121</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="53">
@@ -984,22 +991,22 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>2.24133</v>
+        <v>1.21566</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>2.20897</v>
+        <v>1.45707</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.99737</v>
+        <v>1.45329</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>2.14621</v>
+        <v>1.55335</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_write_128k</t>
+          <t>8,10,12,14_write_128k</t>
         </is>
       </c>
     </row>
@@ -1024,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4471</v>
+        <v>6320</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>5919</v>
+        <v>7135</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>9660</v>
+        <v>8982</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>9246</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="60">
@@ -1043,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>586</v>
+        <v>829</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>776</v>
+        <v>935</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>1266</v>
+        <v>1177</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1212</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="61">
@@ -1062,660 +1069,28 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>63</v>
+        <v>33.71621</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>61.58</v>
+        <v>37.36079</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>51.47</v>
+        <v>41.53012</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randread_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="n">
-        <v>5714</v>
-      </c>
-      <c r="C67" s="4" t="n">
-        <v>11200</v>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>16600</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <v>88.40000000000001</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n">
-        <v>174.74983</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>178.76486</v>
-      </c>
-      <c r="D69" s="4" t="n">
-        <v>180.70354</v>
-      </c>
-      <c r="E69" s="4" t="n">
-        <v>184.40112</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randread_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B75" s="4" t="n">
-        <v>2976</v>
-      </c>
-      <c r="C75" s="4" t="n">
-        <v>5535</v>
-      </c>
-      <c r="D75" s="4" t="n">
-        <v>7897</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B76" s="4" t="n">
-        <v>390</v>
-      </c>
-      <c r="C76" s="4" t="n">
-        <v>726</v>
-      </c>
-      <c r="D76" s="4" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B77" s="4" t="n">
-        <v>334.88</v>
-      </c>
-      <c r="C77" s="4" t="n">
-        <v>360.47</v>
-      </c>
-      <c r="D77" s="4" t="n">
-        <v>375.48</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>386.45</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randwrite_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B83" s="4" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>28600</v>
-      </c>
-      <c r="D83" s="4" t="n">
-        <v>41700</v>
-      </c>
-      <c r="E83" s="4" t="n">
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B84" s="4" t="n">
-        <v>155</v>
-      </c>
-      <c r="C84" s="4" t="n">
-        <v>117</v>
-      </c>
-      <c r="D84" s="4" t="n">
-        <v>171</v>
-      </c>
-      <c r="E84" s="4" t="n">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B85" s="4" t="n">
-        <v>2.79167</v>
-      </c>
-      <c r="C85" s="4" t="n">
-        <v>25.51849</v>
-      </c>
-      <c r="D85" s="4" t="n">
-        <v>23.20088</v>
-      </c>
-      <c r="E85" s="4" t="n">
-        <v>2.45775</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randwrite_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B91" s="4" t="n">
-        <v>1508</v>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>1546</v>
-      </c>
-      <c r="D91" s="4" t="n">
-        <v>1862</v>
-      </c>
-      <c r="E91" s="4" t="n">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B92" s="4" t="n">
-        <v>198</v>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>203</v>
-      </c>
-      <c r="D92" s="4" t="n">
-        <v>244</v>
-      </c>
-      <c r="E92" s="4" t="n">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B93" s="4" t="n">
-        <v>108.79</v>
-      </c>
-      <c r="C93" s="4" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="D93" s="4" t="n">
-        <v>67.29000000000001</v>
-      </c>
-      <c r="E93" s="4" t="n">
-        <v>56.96</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_read_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B99" s="4" t="n">
-        <v>231000</v>
-      </c>
-      <c r="C99" s="4" t="n">
-        <v>324000</v>
-      </c>
-      <c r="D99" s="4" t="n">
-        <v>429000</v>
-      </c>
-      <c r="E99" s="4" t="n">
-        <v>502000</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B100" s="4" t="n">
-        <v>945</v>
-      </c>
-      <c r="C100" s="4" t="n">
-        <v>1329</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <v>1758</v>
-      </c>
-      <c r="E100" s="4" t="n">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B101" s="4" t="n">
-        <v>4.19258</v>
-      </c>
-      <c r="C101" s="4" t="n">
-        <v>6.03486</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>6.85142</v>
-      </c>
-      <c r="E101" s="4" t="n">
-        <v>7.83961</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_read_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B107" s="4" t="n">
-        <v>5885</v>
-      </c>
-      <c r="C107" s="4" t="n">
-        <v>10400</v>
-      </c>
-      <c r="D107" s="4" t="n">
-        <v>13900</v>
-      </c>
-      <c r="E107" s="4" t="n">
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B108" s="4" t="n">
-        <v>771</v>
-      </c>
-      <c r="C108" s="4" t="n">
-        <v>1363</v>
-      </c>
-      <c r="D108" s="4" t="n">
-        <v>1822</v>
-      </c>
-      <c r="E108" s="4" t="n">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B109" s="4" t="n">
-        <v>168.7</v>
-      </c>
-      <c r="C109" s="4" t="n">
-        <v>186.45</v>
-      </c>
-      <c r="D109" s="4" t="n">
-        <v>213.89</v>
-      </c>
-      <c r="E109" s="4" t="n">
-        <v>243.23</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_write_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B115" s="4" t="n">
-        <v>129000</v>
-      </c>
-      <c r="C115" s="4" t="n">
-        <v>180000</v>
-      </c>
-      <c r="D115" s="4" t="n">
-        <v>246000</v>
-      </c>
-      <c r="E115" s="4" t="n">
-        <v>274000</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B116" s="4" t="n">
-        <v>526</v>
-      </c>
-      <c r="C116" s="4" t="n">
-        <v>737</v>
-      </c>
-      <c r="D116" s="4" t="n">
-        <v>1009</v>
-      </c>
-      <c r="E116" s="4" t="n">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B117" s="4" t="n">
-        <v>2.24133</v>
-      </c>
-      <c r="C117" s="4" t="n">
-        <v>2.20897</v>
-      </c>
-      <c r="D117" s="4" t="n">
-        <v>1.99737</v>
-      </c>
-      <c r="E117" s="4" t="n">
-        <v>2.14621</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_write_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E122" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B123" s="4" t="n">
-        <v>4471</v>
-      </c>
-      <c r="C123" s="4" t="n">
-        <v>5919</v>
-      </c>
-      <c r="D123" s="4" t="n">
-        <v>9660</v>
-      </c>
-      <c r="E123" s="4" t="n">
-        <v>9246</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B124" s="4" t="n">
-        <v>586</v>
-      </c>
-      <c r="C124" s="4" t="n">
-        <v>776</v>
-      </c>
-      <c r="D124" s="4" t="n">
-        <v>1266</v>
-      </c>
-      <c r="E124" s="4" t="n">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B125" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="C125" s="4" t="n">
-        <v>61.58</v>
-      </c>
-      <c r="D125" s="4" t="n">
-        <v>51.47</v>
-      </c>
-      <c r="E125" s="4" t="n">
-        <v>52.05</v>
+        <v>47.33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="8">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B113:E113"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B121:E121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randread_4k</t>
+          <t>0,2,4,6_randread_4k</t>
         </is>
       </c>
     </row>
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5818</v>
+        <v>5714</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21800</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>46.4</v>
+        <v>45.7</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>68.2</v>
+        <v>67.8</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>89.40000000000001</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>171.70989</v>
+        <v>174.74983</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>176.01606</v>
+        <v>178.76486</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>179.54562</v>
+        <v>180.70354</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>182.23684</v>
+        <v>184.40112</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randread_128k</t>
+          <t>0,2,4,6_randread_128k</t>
         </is>
       </c>
     </row>
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3038</v>
+        <v>2976</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5641</v>
+        <v>5535</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>8084</v>
+        <v>7897</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>9990</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="12">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1309</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="13">
@@ -601,22 +601,22 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>328.5</v>
+        <v>334.88</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>352.23</v>
+        <v>360.47</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>364.8</v>
+        <v>375.48</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>381.38</v>
+        <v>386.45</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randwrite_4k</t>
+          <t>0,2,4,6_randwrite_4k</t>
         </is>
       </c>
     </row>
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>17700</v>
+        <v>37800</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>35800</v>
+        <v>28600</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>38300</v>
+        <v>41700</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>47200</v>
+        <v>70400</v>
       </c>
     </row>
     <row r="20">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>72.59999999999999</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>193</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21">
@@ -679,22 +679,22 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>27.2554</v>
+        <v>2.79167</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>28.1189</v>
+        <v>25.51849</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>28.55453</v>
+        <v>23.20088</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>28.997</v>
+        <v>2.45775</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randwrite_128k</t>
+          <t>0,2,4,6_randwrite_128k</t>
         </is>
       </c>
     </row>
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1484</v>
+        <v>1508</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>1572</v>
+        <v>1546</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>1989</v>
+        <v>1862</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>2323</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="28">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>61.33</v>
+        <v>108.79</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>58.93</v>
+        <v>69.8</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>60.81</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>69.48</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_read_4k</t>
+          <t>0,2,4,6_read_4k</t>
         </is>
       </c>
     </row>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>221000</v>
+        <v>231000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>305000</v>
+        <v>324000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>443000</v>
+        <v>429000</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>502000</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1814</v>
+        <v>1758</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>2057</v>
@@ -835,22 +835,22 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>4.39508</v>
+        <v>4.19258</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>6.43238</v>
+        <v>6.03486</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>6.61436</v>
+        <v>6.85142</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>7.78851</v>
+        <v>7.83961</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_read_128k</t>
+          <t>0,2,4,6_read_128k</t>
         </is>
       </c>
     </row>
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>5626</v>
+        <v>5885</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>15100</v>
+        <v>13900</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>16200</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="44">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1384</v>
+        <v>1363</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1974</v>
+        <v>1822</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2122</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="45">
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>177.06</v>
+        <v>168.7</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>188.31</v>
+        <v>186.45</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>196.97</v>
+        <v>213.89</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>245.14</v>
+        <v>243.23</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_write_4k</t>
+          <t>0,2,4,6_write_4k</t>
         </is>
       </c>
     </row>
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>142000</v>
+        <v>129000</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>263000</v>
+        <v>180000</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>251000</v>
+        <v>246000</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>318000</v>
+        <v>274000</v>
       </c>
     </row>
     <row r="52">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1078</v>
+        <v>737</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1303</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="53">
@@ -991,22 +991,22 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>1.21566</v>
+        <v>2.24133</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.45707</v>
+        <v>2.20897</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.45329</v>
+        <v>1.99737</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.55335</v>
+        <v>2.14621</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_write_128k</t>
+          <t>0,2,4,6_write_128k</t>
         </is>
       </c>
     </row>
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>6320</v>
+        <v>4471</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>7135</v>
+        <v>5919</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>8982</v>
+        <v>9660</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>13300</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="60">
@@ -1050,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>829</v>
+        <v>586</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>935</v>
+        <v>776</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>1177</v>
+        <v>1266</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1743</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="61">
@@ -1069,28 +1069,660 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>51.47</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>52.05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randread_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>5818</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>11300</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>16700</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>89.40000000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>171.70989</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>176.01606</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>179.54562</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>182.23684</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randread_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>3038</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>5641</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>8084</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>398</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>739</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>352.23</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>381.38</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randwrite_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>17700</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>35800</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>38300</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>157</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>27.2554</v>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>28.1189</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>28.55453</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>28.997</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randwrite_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>1484</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>1572</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>261</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>61.33</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>58.93</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>60.81</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>69.48</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_read_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>221000</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>305000</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>443000</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>502000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>907</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>1814</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>4.39508</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>6.43238</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>6.61436</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>7.78851</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_read_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>5626</v>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>10600</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>15100</v>
+      </c>
+      <c r="E107" s="4" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>737</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>1384</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>177.06</v>
+      </c>
+      <c r="C109" s="4" t="n">
+        <v>188.31</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>196.97</v>
+      </c>
+      <c r="E109" s="4" t="n">
+        <v>245.14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_write_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>142000</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>263000</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>251000</v>
+      </c>
+      <c r="E115" s="4" t="n">
+        <v>318000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>584</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>1.21566</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>1.45707</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>1.45329</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>1.55335</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_write_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>6320</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>7135</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>8982</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>829</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>935</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>1177</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="n">
         <v>33.71621</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C125" s="4" t="n">
         <v>37.36079</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D125" s="4" t="n">
         <v>41.53012</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E125" s="4" t="n">
         <v>47.33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B113:E113"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B121:E121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5714</v>
+        <v>33200</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11200</v>
+        <v>61600</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>16600</v>
+        <v>74100</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21600</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.4</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>45.7</v>
+        <v>252</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>67.8</v>
+        <v>304</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>88.40000000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>174.74983</v>
+        <v>29.93895</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>178.76486</v>
+        <v>31.87626</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>180.70354</v>
+        <v>40.20043</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>184.40112</v>
+        <v>56.1516</v>
       </c>
     </row>
     <row r="9">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>2976</v>
+        <v>3047</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5535</v>
+        <v>21100</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>7897</v>
+        <v>8062</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>10200</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="12">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>726</v>
+        <v>2767</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1342</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="13">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>334.88</v>
+        <v>327.04</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>360.47</v>
+        <v>93.88</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>375.48</v>
+        <v>363.11</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>386.45</v>
+        <v>116.82</v>
       </c>
     </row>
     <row r="17">
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>37800</v>
+        <v>356000</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>28600</v>
+        <v>493000</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>41700</v>
+        <v>578000</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>70400</v>
+        <v>615000</v>
       </c>
     </row>
     <row r="20">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>155</v>
+        <v>1459</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>117</v>
+        <v>2018</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>171</v>
+        <v>2369</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>288</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="21">
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>2.79167</v>
+        <v>1.24245</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>25.51849</v>
+        <v>1.23562</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>23.20088</v>
+        <v>1.30459</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>2.45775</v>
+        <v>1.28014</v>
       </c>
     </row>
     <row r="25">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1508</v>
+        <v>14200</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>1546</v>
+        <v>19300</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>1862</v>
+        <v>21000</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>2067</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="28">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>198</v>
+        <v>1864</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>203</v>
+        <v>2532</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>244</v>
+        <v>2758</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>271</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="29">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>108.79</v>
+        <v>23.7</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>69.8</v>
+        <v>26.14</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>67.29000000000001</v>
+        <v>28.42</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>56.96</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="33">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>231000</v>
+        <v>529000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>324000</v>
+        <v>790000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>429000</v>
+        <v>902000</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>502000</v>
+        <v>971000</v>
       </c>
     </row>
     <row r="36">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>945</v>
+        <v>2165</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1329</v>
+        <v>3234</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1758</v>
+        <v>3694</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>2057</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="37">
@@ -835,16 +835,16 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>4.19258</v>
+        <v>1.68315</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>6.03486</v>
+        <v>2.42806</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>6.85142</v>
+        <v>3.19291</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>7.83961</v>
+        <v>3.97811</v>
       </c>
     </row>
     <row r="41">
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>5885</v>
+        <v>20900</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>10400</v>
+        <v>28400</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>13900</v>
+        <v>31700</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>16300</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="44">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>771</v>
+        <v>2739</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1363</v>
+        <v>3728</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1822</v>
+        <v>4151</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2139</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="45">
@@ -913,16 +913,16 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>168.7</v>
+        <v>47.28</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>186.45</v>
+        <v>69.7</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>213.89</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>243.23</v>
+        <v>112.23</v>
       </c>
     </row>
     <row r="49">
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>129000</v>
+        <v>280000</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>180000</v>
+        <v>428000</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>246000</v>
+        <v>445000</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>274000</v>
+        <v>478000</v>
       </c>
     </row>
     <row r="52">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>526</v>
+        <v>1147</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>737</v>
+        <v>1754</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1009</v>
+        <v>1822</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1121</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="53">
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>2.24133</v>
+        <v>1.39846</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>2.20897</v>
+        <v>1.18719</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.99737</v>
+        <v>1.18228</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>2.14621</v>
+        <v>1.21185</v>
       </c>
     </row>
     <row r="57">
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4471</v>
+        <v>11800</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>5919</v>
+        <v>13700</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>9660</v>
+        <v>14500</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>9246</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="60">
@@ -1050,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>586</v>
+        <v>1543</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>776</v>
+        <v>1790</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>1266</v>
+        <v>1899</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1212</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="61">
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>63</v>
+        <v>23.74469</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>61.58</v>
+        <v>25.10921</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>51.47</v>
+        <v>27.41</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>52.05</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="65">
@@ -1109,16 +1109,16 @@
         </is>
       </c>
       <c r="B67" s="4" t="n">
-        <v>5818</v>
+        <v>32300</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>11300</v>
+        <v>61700</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>16700</v>
+        <v>52600</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>21800</v>
+        <v>73300</v>
       </c>
     </row>
     <row r="68">
@@ -1128,16 +1128,16 @@
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>23.8</v>
+        <v>132</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>46.4</v>
+        <v>253</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>68.2</v>
+        <v>216</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>89.40000000000001</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69">
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="B69" s="4" t="n">
-        <v>171.70989</v>
+        <v>30.8725</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>176.01606</v>
+        <v>31.8884</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>179.54562</v>
+        <v>56.5564</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>182.23684</v>
+        <v>53.89756</v>
       </c>
     </row>
     <row r="73">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="B75" s="4" t="n">
-        <v>3038</v>
+        <v>11000</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>5641</v>
+        <v>7816</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>8084</v>
+        <v>28200</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>9990</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="76">
@@ -1206,16 +1206,16 @@
         </is>
       </c>
       <c r="B76" s="4" t="n">
-        <v>398</v>
+        <v>1443</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>739</v>
+        <v>1025</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>1060</v>
+        <v>3694</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>1309</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="77">
@@ -1225,16 +1225,16 @@
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>328.5</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>352.23</v>
+        <v>254.41</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>364.8</v>
+        <v>105.33</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>381.38</v>
+        <v>127.87</v>
       </c>
     </row>
     <row r="81">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>17700</v>
+        <v>315000</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>35800</v>
+        <v>546000</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>38300</v>
+        <v>626000</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>47200</v>
+        <v>662000</v>
       </c>
     </row>
     <row r="84">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>72.59999999999999</v>
+        <v>1291</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>147</v>
+        <v>2237</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>157</v>
+        <v>2565</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>193</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="85">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>27.2554</v>
+        <v>1.47591</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>28.1189</v>
+        <v>1.27465</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>28.55453</v>
+        <v>1.22348</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>28.997</v>
+        <v>1.22044</v>
       </c>
     </row>
     <row r="89">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="B91" s="4" t="n">
-        <v>1484</v>
+        <v>16000</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>1572</v>
+        <v>18300</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>1989</v>
+        <v>21300</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>2323</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="92">
@@ -1362,16 +1362,16 @@
         </is>
       </c>
       <c r="B92" s="4" t="n">
-        <v>195</v>
+        <v>2097</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>206</v>
+        <v>2397</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>261</v>
+        <v>2796</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>305</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="93">
@@ -1381,16 +1381,16 @@
         </is>
       </c>
       <c r="B93" s="4" t="n">
-        <v>61.33</v>
+        <v>22.11371</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>58.93</v>
+        <v>27.55</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>60.81</v>
+        <v>28.77</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>69.48</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="97">
@@ -1421,16 +1421,16 @@
         </is>
       </c>
       <c r="B99" s="4" t="n">
-        <v>221000</v>
+        <v>575000</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>305000</v>
+        <v>771000</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>443000</v>
+        <v>870000</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>502000</v>
+        <v>964000</v>
       </c>
     </row>
     <row r="100">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="B100" s="4" t="n">
-        <v>907</v>
+        <v>2355</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1249</v>
+        <v>3158</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>1814</v>
+        <v>3563</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>2057</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="101">
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="B101" s="4" t="n">
-        <v>4.39508</v>
+        <v>1.6196</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>6.43238</v>
+        <v>2.44405</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>6.61436</v>
+        <v>3.27233</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>7.78851</v>
+        <v>3.99944</v>
       </c>
     </row>
     <row r="105">
@@ -1499,16 +1499,16 @@
         </is>
       </c>
       <c r="B107" s="4" t="n">
-        <v>5626</v>
+        <v>20900</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>10600</v>
+        <v>26900</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>15100</v>
+        <v>32300</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>16200</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="108">
@@ -1518,16 +1518,16 @@
         </is>
       </c>
       <c r="B108" s="4" t="n">
-        <v>737</v>
+        <v>2739</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>1384</v>
+        <v>3532</v>
       </c>
       <c r="D108" s="4" t="n">
-        <v>1974</v>
+        <v>4238</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>2122</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="109">
@@ -1537,16 +1537,16 @@
         </is>
       </c>
       <c r="B109" s="4" t="n">
-        <v>177.06</v>
+        <v>47.59</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>188.31</v>
+        <v>71.41</v>
       </c>
       <c r="D109" s="4" t="n">
-        <v>196.97</v>
+        <v>91.63</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>245.14</v>
+        <v>112.64</v>
       </c>
     </row>
     <row r="113">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="B115" s="4" t="n">
-        <v>142000</v>
+        <v>282000</v>
       </c>
       <c r="C115" s="4" t="n">
-        <v>263000</v>
+        <v>420000</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>251000</v>
+        <v>468000</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>318000</v>
+        <v>489000</v>
       </c>
     </row>
     <row r="116">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="B116" s="4" t="n">
-        <v>584</v>
+        <v>1157</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>1078</v>
+        <v>1721</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>1030</v>
+        <v>1917</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>1303</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="117">
@@ -1615,16 +1615,16 @@
         </is>
       </c>
       <c r="B117" s="4" t="n">
-        <v>1.21566</v>
+        <v>1.29361</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>1.45707</v>
+        <v>1.12045</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>1.45329</v>
+        <v>1.10408</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>1.55335</v>
+        <v>1.11008</v>
       </c>
     </row>
     <row r="121">
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="B123" s="4" t="n">
-        <v>6320</v>
+        <v>10800</v>
       </c>
       <c r="C123" s="4" t="n">
-        <v>7135</v>
+        <v>13900</v>
       </c>
       <c r="D123" s="4" t="n">
-        <v>8982</v>
+        <v>14900</v>
       </c>
       <c r="E123" s="4" t="n">
-        <v>13300</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="124">
@@ -1674,16 +1674,16 @@
         </is>
       </c>
       <c r="B124" s="4" t="n">
-        <v>829</v>
+        <v>1413</v>
       </c>
       <c r="C124" s="4" t="n">
-        <v>935</v>
+        <v>1826</v>
       </c>
       <c r="D124" s="4" t="n">
-        <v>1177</v>
+        <v>1955</v>
       </c>
       <c r="E124" s="4" t="n">
-        <v>1743</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="125">
@@ -1693,16 +1693,16 @@
         </is>
       </c>
       <c r="B125" s="4" t="n">
-        <v>33.71621</v>
+        <v>23.53156</v>
       </c>
       <c r="C125" s="4" t="n">
-        <v>37.36079</v>
+        <v>28.30915</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>41.53012</v>
+        <v>27.83776</v>
       </c>
       <c r="E125" s="4" t="n">
-        <v>47.33</v>
+        <v>31.47757</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>8258</v>
+        <v>9394</v>
       </c>
       <c r="C3" s="3">
-        <v>15200</v>
+        <v>17400</v>
       </c>
       <c r="D3" s="3">
-        <v>27100</v>
+        <v>30100</v>
       </c>
       <c r="E3" s="3">
-        <v>37200</v>
+        <v>38500</v>
       </c>
       <c r="F3" s="3">
-        <v>38300</v>
+        <v>39100</v>
       </c>
       <c r="G3" s="3">
-        <v>38100</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1082.130432</v>
+        <v>1231.028224</v>
       </c>
       <c r="C4" s="4">
-        <v>1988.100096</v>
+        <v>2274.361344</v>
       </c>
       <c r="D4" s="4">
-        <v>3555.721216</v>
+        <v>3947.88864</v>
       </c>
       <c r="E4" s="4">
-        <v>4881.12128</v>
+        <v>5041.553408</v>
       </c>
       <c r="F4" s="4">
-        <v>5017.43616</v>
+        <v>5125.439488</v>
       </c>
       <c r="G4" s="4">
-        <v>4988.076032</v>
+        <v>5181.014016</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>119.76</v>
+        <v>105.5</v>
       </c>
       <c r="C5" s="4">
-        <v>130.06</v>
+        <v>113.63</v>
       </c>
       <c r="D5" s="4">
-        <v>145.82</v>
+        <v>130.56</v>
       </c>
       <c r="E5" s="4">
-        <v>211.97</v>
+        <v>205.11</v>
       </c>
       <c r="F5" s="4">
-        <v>406.72</v>
+        <v>397.32</v>
       </c>
       <c r="G5" s="4">
-        <v>818.37</v>
+        <v>788.98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D6" s="4">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E6" s="4">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F6" s="4">
-        <v>1106</v>
+        <v>1336</v>
       </c>
       <c r="G6" s="4">
-        <v>2802</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E7" s="4">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="F7" s="4">
-        <v>1680</v>
+        <v>2024</v>
       </c>
       <c r="G7" s="4">
-        <v>4621</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -617,19 +617,19 @@
         <v>35700</v>
       </c>
       <c r="C12" s="3">
-        <v>70900</v>
+        <v>71900</v>
       </c>
       <c r="D12" s="3">
-        <v>139000</v>
+        <v>142000</v>
       </c>
       <c r="E12" s="3">
-        <v>263000</v>
+        <v>271000</v>
       </c>
       <c r="F12" s="3">
-        <v>474000</v>
+        <v>482000</v>
       </c>
       <c r="G12" s="3">
-        <v>777000</v>
+        <v>774000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -640,19 +640,19 @@
         <v>145.752064</v>
       </c>
       <c r="C13" s="4">
-        <v>290.455552</v>
+        <v>294.649856</v>
       </c>
       <c r="D13" s="4">
-        <v>570.425344</v>
+        <v>581.95968</v>
       </c>
       <c r="E13" s="4">
-        <v>1075.838976</v>
+        <v>1111.49056</v>
       </c>
       <c r="F13" s="4">
-        <v>1941.962752</v>
+        <v>1973.420032</v>
       </c>
       <c r="G13" s="4">
-        <v>3181.379584</v>
+        <v>3169.845248</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>27.65067</v>
+        <v>27.5332</v>
       </c>
       <c r="C14" s="4">
-        <v>27.78939</v>
+        <v>27.40673</v>
       </c>
       <c r="D14" s="4">
-        <v>28.27756</v>
+        <v>27.72106</v>
       </c>
       <c r="E14" s="4">
-        <v>29.57228</v>
+        <v>28.84652</v>
       </c>
       <c r="F14" s="4">
-        <v>32.73336</v>
+        <v>32.19637</v>
       </c>
       <c r="G14" s="4">
-        <v>39.99583000000001</v>
+        <v>40.59279</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -686,19 +686,19 @@
         <v>44.288</v>
       </c>
       <c r="C15" s="4">
-        <v>44.8</v>
+        <v>44.288</v>
       </c>
       <c r="D15" s="4">
-        <v>46.336</v>
+        <v>45.312</v>
       </c>
       <c r="E15" s="4">
-        <v>50.432</v>
+        <v>48.896</v>
       </c>
       <c r="F15" s="4">
-        <v>60.672</v>
+        <v>59.648</v>
       </c>
       <c r="G15" s="4">
-        <v>81.408</v>
+        <v>82.432</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
+        <v>45.824</v>
+      </c>
+      <c r="C16" s="4">
         <v>46.848</v>
       </c>
-      <c r="C16" s="4">
-        <v>48.384</v>
-      </c>
       <c r="D16" s="4">
-        <v>54.528</v>
+        <v>53.504</v>
       </c>
       <c r="E16" s="4">
-        <v>64.256</v>
+        <v>63.232</v>
       </c>
       <c r="F16" s="4">
         <v>75.264</v>
       </c>
       <c r="G16" s="4">
-        <v>101.888</v>
+        <v>102.912</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>8982</v>
+        <v>12000</v>
       </c>
       <c r="C21" s="3">
-        <v>13200</v>
+        <v>18100</v>
       </c>
       <c r="D21" s="3">
-        <v>17900</v>
+        <v>22800</v>
       </c>
       <c r="E21" s="3">
-        <v>19000</v>
+        <v>26900</v>
       </c>
       <c r="F21" s="3">
-        <v>22700</v>
+        <v>29300</v>
       </c>
       <c r="G21" s="3">
-        <v>21700</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1177.550848</v>
+        <v>1579.155456</v>
       </c>
       <c r="C22" s="4">
-        <v>1732.247552</v>
+        <v>2375.02464</v>
       </c>
       <c r="D22" s="4">
-        <v>2344.615936</v>
+        <v>2982.150144</v>
       </c>
       <c r="E22" s="4">
-        <v>2619.342848</v>
+        <v>3520.069632</v>
       </c>
       <c r="F22" s="4">
-        <v>2977.95584</v>
+        <v>3834.642432</v>
       </c>
       <c r="G22" s="4">
-        <v>2838.495232</v>
+        <v>3177.18528</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>78.14</v>
+        <v>49.98</v>
       </c>
       <c r="C23" s="4">
-        <v>86.52</v>
+        <v>51.12</v>
       </c>
       <c r="D23" s="4">
-        <v>105.28</v>
+        <v>55.24</v>
       </c>
       <c r="E23" s="4">
-        <v>196.39</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="F23" s="4">
-        <v>385.97</v>
+        <v>190.42</v>
       </c>
       <c r="G23" s="4">
-        <v>661.5599999999999</v>
+        <v>574.36</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="F24" s="4">
-        <v>676</v>
+        <v>310</v>
       </c>
       <c r="G24" s="4">
-        <v>1303</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,19 +852,19 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="E25" s="4">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="F25" s="4">
-        <v>775</v>
+        <v>392</v>
       </c>
       <c r="G25" s="4">
         <v>2540</v>
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>185000</v>
+        <v>239000</v>
       </c>
       <c r="C30" s="3">
-        <v>333000</v>
+        <v>423000</v>
       </c>
       <c r="D30" s="3">
-        <v>514000</v>
+        <v>630000</v>
       </c>
       <c r="E30" s="3">
-        <v>597000</v>
+        <v>771000</v>
       </c>
       <c r="F30" s="3">
-        <v>667000</v>
+        <v>685000</v>
       </c>
       <c r="G30" s="3">
-        <v>370000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>758.120448</v>
+        <v>979.369984</v>
       </c>
       <c r="C31" s="4">
-        <v>1362.100224</v>
+        <v>1732.247552</v>
       </c>
       <c r="D31" s="4">
-        <v>2105.540608</v>
+        <v>2581.594112</v>
       </c>
       <c r="E31" s="4">
-        <v>2446.327808</v>
+        <v>3158.310912</v>
       </c>
       <c r="F31" s="4">
-        <v>2732.589056</v>
+        <v>2807.037952</v>
       </c>
       <c r="G31" s="4">
-        <v>1515.19232</v>
+        <v>2785.017856</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>3.29691</v>
+        <v>2.22498</v>
       </c>
       <c r="C32" s="4">
-        <v>3.53023</v>
+        <v>2.38901</v>
       </c>
       <c r="D32" s="4">
-        <v>3.79462</v>
+        <v>2.39453</v>
       </c>
       <c r="E32" s="4">
-        <v>6.018470000000001</v>
+        <v>2.61313</v>
       </c>
       <c r="F32" s="4">
-        <v>11.45276</v>
+        <v>4.92057</v>
       </c>
       <c r="G32" s="4">
-        <v>20.06463</v>
+        <v>16.83237</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>6.88</v>
+        <v>3.568</v>
       </c>
       <c r="C33" s="4">
-        <v>7.136</v>
+        <v>3.952</v>
       </c>
       <c r="D33" s="4">
-        <v>7.072</v>
+        <v>3.952</v>
       </c>
       <c r="E33" s="4">
-        <v>9.024000000000001</v>
+        <v>4.256</v>
       </c>
       <c r="F33" s="4">
-        <v>21.888</v>
+        <v>9.536</v>
       </c>
       <c r="G33" s="4">
-        <v>42.24</v>
+        <v>55.552</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>8.096</v>
+        <v>4.832</v>
       </c>
       <c r="C34" s="4">
-        <v>8.640000000000001</v>
+        <v>5.28</v>
       </c>
       <c r="D34" s="4">
-        <v>8.768000000000001</v>
+        <v>5.344</v>
       </c>
       <c r="E34" s="4">
-        <v>12.608</v>
+        <v>5.92</v>
       </c>
       <c r="F34" s="4">
-        <v>29.568</v>
+        <v>13.248</v>
       </c>
       <c r="G34" s="4">
-        <v>79.36</v>
+        <v>84.48</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>12300</v>
+        <v>18300</v>
       </c>
       <c r="C39" s="3">
-        <v>21600</v>
+        <v>24700</v>
       </c>
       <c r="D39" s="3">
-        <v>23000</v>
+        <v>24400</v>
       </c>
       <c r="E39" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="F39" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="G39" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1616.904192</v>
+        <v>2397.044736</v>
       </c>
       <c r="C40" s="4">
-        <v>2825.91232</v>
+        <v>3233.808384</v>
       </c>
       <c r="D40" s="4">
-        <v>3139.436544</v>
+        <v>3196.059648</v>
       </c>
       <c r="E40" s="4">
-        <v>3167.748096</v>
+        <v>3244.294144</v>
       </c>
       <c r="F40" s="4">
-        <v>3214.934016</v>
+        <v>3278.897152</v>
       </c>
       <c r="G40" s="4">
-        <v>3229.61408</v>
+        <v>3291.480064</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>79.83</v>
+        <v>54.35</v>
       </c>
       <c r="C41" s="4">
-        <v>89.47</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="D41" s="4">
-        <v>163.3</v>
+        <v>162.17</v>
       </c>
       <c r="E41" s="4">
-        <v>325.81</v>
+        <v>320.93</v>
       </c>
       <c r="F41" s="4">
-        <v>645.28</v>
+        <v>637.24</v>
       </c>
       <c r="G41" s="4">
-        <v>1287.33</v>
+        <v>1270.21</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C42" s="4">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D42" s="4">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="E42" s="4">
-        <v>1336</v>
+        <v>1516</v>
       </c>
       <c r="F42" s="4">
-        <v>3228</v>
+        <v>3752</v>
       </c>
       <c r="G42" s="4">
-        <v>6980</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,19 +1144,19 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="C43" s="4">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="D43" s="4">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="E43" s="4">
-        <v>1844</v>
+        <v>2073</v>
       </c>
       <c r="F43" s="4">
-        <v>4293</v>
+        <v>4555</v>
       </c>
       <c r="G43" s="4">
         <v>7898</v>
@@ -1198,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>368000</v>
+        <v>462000</v>
       </c>
       <c r="C48" s="3">
-        <v>618000</v>
+        <v>790000</v>
       </c>
       <c r="D48" s="3">
-        <v>753000</v>
+        <v>776000</v>
       </c>
       <c r="E48" s="3">
-        <v>771000</v>
+        <v>797000</v>
       </c>
       <c r="F48" s="3">
-        <v>783000</v>
+        <v>802000</v>
       </c>
       <c r="G48" s="3">
-        <v>759000</v>
+        <v>804000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>1507.852288</v>
+        <v>1890.582528</v>
       </c>
       <c r="C49" s="4">
-        <v>2532.31104</v>
+        <v>3233.808384</v>
       </c>
       <c r="D49" s="4">
-        <v>3085.959168</v>
+        <v>3177.18528</v>
       </c>
       <c r="E49" s="4">
-        <v>3158.310912</v>
+        <v>3263.168512</v>
       </c>
       <c r="F49" s="4">
-        <v>3205.496832</v>
+        <v>3283.091456</v>
       </c>
       <c r="G49" s="4">
-        <v>3110.076416</v>
+        <v>3291.480064</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>2.4471</v>
+        <v>1.94216</v>
       </c>
       <c r="C50" s="4">
-        <v>2.96363</v>
+        <v>2.2863</v>
       </c>
       <c r="D50" s="4">
-        <v>5.00722</v>
+        <v>4.852270000000001</v>
       </c>
       <c r="E50" s="4">
-        <v>10.03239</v>
+        <v>9.763030000000001</v>
       </c>
       <c r="F50" s="4">
-        <v>19.80364</v>
+        <v>19.67969</v>
       </c>
       <c r="G50" s="4">
-        <v>41.54157</v>
+        <v>39.52358</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,22 +1267,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.304</v>
+        <v>0.908</v>
       </c>
       <c r="C51" s="4">
-        <v>1.4</v>
+        <v>0.972</v>
       </c>
       <c r="D51" s="4">
-        <v>1.512</v>
+        <v>1.064</v>
       </c>
       <c r="E51" s="4">
-        <v>2.096</v>
+        <v>1.192</v>
       </c>
       <c r="F51" s="4">
-        <v>6.56</v>
+        <v>1.256</v>
       </c>
       <c r="G51" s="4">
-        <v>7.264</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>111.104</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="C52" s="4">
-        <v>134.144</v>
+        <v>93.696</v>
       </c>
       <c r="D52" s="4">
-        <v>171.008</v>
+        <v>138.24</v>
       </c>
       <c r="E52" s="4">
-        <v>350.208</v>
+        <v>257.024</v>
       </c>
       <c r="F52" s="4">
-        <v>536.576</v>
+        <v>284.672</v>
       </c>
       <c r="G52" s="4">
-        <v>749.568</v>
+        <v>284.672</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>7211</v>
+        <v>9570</v>
       </c>
       <c r="C57" s="3">
-        <v>10800</v>
+        <v>13500</v>
       </c>
       <c r="D57" s="3">
-        <v>13700</v>
+        <v>17100</v>
       </c>
       <c r="E57" s="3">
-        <v>14900</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="G57" s="3">
-        <v>17800</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>944.766976</v>
+        <v>1254.096896</v>
       </c>
       <c r="C58" s="4">
-        <v>1412.431872</v>
+        <v>1765.801984</v>
       </c>
       <c r="D58" s="4">
-        <v>1789.919232</v>
+        <v>2236.612608</v>
       </c>
       <c r="E58" s="4">
-        <v>1955.59424</v>
+        <v>2222.98112</v>
       </c>
       <c r="F58" s="4">
-        <v>2097.152</v>
+        <v>2203.058176</v>
       </c>
       <c r="G58" s="4">
-        <v>2329.935872</v>
+        <v>2478.833664</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>87.56</v>
+        <v>53.12981</v>
       </c>
       <c r="C59" s="4">
-        <v>93.48999999999999</v>
+        <v>55.11626</v>
       </c>
       <c r="D59" s="4">
-        <v>110.73</v>
+        <v>56.1767</v>
       </c>
       <c r="E59" s="4">
-        <v>199.21</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="F59" s="4">
-        <v>395.43</v>
+        <v>420.63</v>
       </c>
       <c r="G59" s="4">
-        <v>909.34</v>
+        <v>836.58</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>143</v>
+        <v>56.064</v>
       </c>
       <c r="C60" s="4">
-        <v>143</v>
+        <v>58.112</v>
       </c>
       <c r="D60" s="4">
-        <v>155</v>
+        <v>59.648</v>
       </c>
       <c r="E60" s="4">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="F60" s="4">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G60" s="4">
-        <v>947</v>
+        <v>898</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>149</v>
+        <v>58.112</v>
       </c>
       <c r="C61" s="4">
-        <v>151</v>
+        <v>62.208</v>
       </c>
       <c r="D61" s="4">
-        <v>167</v>
+        <v>63.232</v>
       </c>
       <c r="E61" s="4">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="F61" s="4">
         <v>578</v>
       </c>
       <c r="G61" s="4">
-        <v>17171</v>
+        <v>21365</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,19 +1490,19 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>204000</v>
+        <v>264000</v>
       </c>
       <c r="C66" s="3">
-        <v>315000</v>
+        <v>388000</v>
       </c>
       <c r="D66" s="3">
-        <v>434000</v>
+        <v>506000</v>
       </c>
       <c r="E66" s="3">
-        <v>466000</v>
+        <v>542000</v>
       </c>
       <c r="F66" s="3">
-        <v>512000</v>
+        <v>605000</v>
       </c>
       <c r="G66" s="3">
         <v>563000</v>
@@ -1513,43 +1513,45 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>833.61792</v>
+        <v>1082.130432</v>
       </c>
       <c r="C67" s="4">
-        <v>1290.797056</v>
+        <v>1588.59264</v>
       </c>
       <c r="D67" s="4">
-        <v>1777.33632</v>
+        <v>2073.034752</v>
       </c>
       <c r="E67" s="4">
-        <v>1907.359744</v>
+        <v>2218.786816</v>
       </c>
       <c r="F67" s="4">
-        <v>2097.152</v>
+        <v>2476.736512</v>
       </c>
       <c r="G67" s="4">
-        <v>2303.721472</v>
+        <v>2305.818624</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="4"/>
+      <c r="B68" s="4">
+        <v>2.01044</v>
+      </c>
       <c r="C68" s="4">
-        <v>3.22242</v>
+        <v>2.08489</v>
       </c>
       <c r="D68" s="4">
-        <v>3.57382</v>
+        <v>2.12109</v>
       </c>
       <c r="E68" s="4">
-        <v>6.077560000000001</v>
+        <v>2.34079</v>
       </c>
       <c r="F68" s="4">
-        <v>14.2809</v>
+        <v>4.81608</v>
       </c>
       <c r="G68" s="4">
-        <v>27.89419</v>
+        <v>30.10735</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1557,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>5.344</v>
+        <v>2.896</v>
       </c>
       <c r="C69" s="4">
-        <v>5.536</v>
+        <v>3.216</v>
       </c>
       <c r="D69" s="4">
-        <v>5.792</v>
+        <v>3.344</v>
       </c>
       <c r="E69" s="4">
-        <v>8.768000000000001</v>
+        <v>3.792</v>
       </c>
       <c r="F69" s="4">
-        <v>19.584</v>
+        <v>8.512</v>
       </c>
       <c r="G69" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1580,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>7.008</v>
+        <v>4.192</v>
       </c>
       <c r="C70" s="4">
-        <v>7.136</v>
+        <v>4.64</v>
       </c>
       <c r="D70" s="4">
-        <v>8.256</v>
+        <v>4.576000000000001</v>
       </c>
       <c r="E70" s="4">
-        <v>12.48</v>
+        <v>5.792</v>
       </c>
       <c r="F70" s="4">
-        <v>27.264</v>
+        <v>11.968</v>
       </c>
       <c r="G70" s="4">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>6522</v>
+        <v>7937</v>
       </c>
       <c r="C3" s="3">
-        <v>1943</v>
+        <v>13600</v>
       </c>
       <c r="D3" s="3">
-        <v>3750</v>
+        <v>4035</v>
       </c>
       <c r="E3" s="3">
-        <v>8233</v>
+        <v>8249</v>
       </c>
       <c r="F3" s="3">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="G3" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>854.58944</v>
+        <v>1040.187392</v>
       </c>
       <c r="C4" s="4">
-        <v>254.803968</v>
+        <v>1777.33632</v>
       </c>
       <c r="D4" s="4">
-        <v>491.782144</v>
+        <v>528.482304</v>
       </c>
       <c r="E4" s="4">
-        <v>1078.984704</v>
+        <v>1081.081856</v>
       </c>
       <c r="F4" s="4">
-        <v>1678.770176</v>
+        <v>1636.827136</v>
       </c>
       <c r="G4" s="4">
-        <v>1805.647872</v>
+        <v>1690.304512</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>152.17</v>
+        <v>125.24</v>
       </c>
       <c r="C5" s="4">
-        <v>1024.93</v>
+        <v>144.85</v>
       </c>
       <c r="D5" s="4">
-        <v>991.99</v>
+        <v>911.16</v>
       </c>
       <c r="E5" s="4">
-        <v>903.72</v>
+        <v>805.22</v>
       </c>
       <c r="F5" s="4">
-        <v>1143.46</v>
+        <v>1191.82</v>
       </c>
       <c r="G5" s="4">
-        <v>2258.46</v>
+        <v>2373.09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4">
-        <v>1795</v>
+        <v>233</v>
       </c>
       <c r="D6" s="4">
+        <v>1827</v>
+      </c>
+      <c r="E6" s="4">
         <v>1893</v>
       </c>
-      <c r="E6" s="4">
-        <v>1958</v>
-      </c>
       <c r="F6" s="4">
-        <v>2540</v>
+        <v>2704</v>
       </c>
       <c r="G6" s="4">
-        <v>5342</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="C7" s="4">
-        <v>2835</v>
+        <v>338</v>
       </c>
       <c r="D7" s="4">
+        <v>2057</v>
+      </c>
+      <c r="E7" s="4">
         <v>2114</v>
       </c>
-      <c r="E7" s="4">
-        <v>2180</v>
-      </c>
       <c r="F7" s="4">
-        <v>3654</v>
+        <v>3752</v>
       </c>
       <c r="G7" s="4">
-        <v>6849</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>5577</v>
+        <v>5879</v>
       </c>
       <c r="C12" s="3">
-        <v>42300</v>
+        <v>46100</v>
       </c>
       <c r="D12" s="3">
-        <v>89200</v>
+        <v>99100</v>
       </c>
       <c r="E12" s="3">
-        <v>152000</v>
+        <v>143000</v>
       </c>
       <c r="F12" s="3">
-        <v>58400</v>
+        <v>63300</v>
       </c>
       <c r="G12" s="3">
-        <v>443000</v>
+        <v>436000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>22.8589568</v>
+        <v>23.068672</v>
       </c>
       <c r="C13" s="4">
-        <v>173.01504</v>
+        <v>188.74368</v>
       </c>
       <c r="D13" s="4">
-        <v>364.904448</v>
+        <v>405.798912</v>
       </c>
       <c r="E13" s="4">
-        <v>621.805568</v>
+        <v>587.2025599999999</v>
       </c>
       <c r="F13" s="4">
-        <v>239.075328</v>
+        <v>258.998272</v>
       </c>
       <c r="G13" s="4">
-        <v>1814.03648</v>
+        <v>1784.676352</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>178.46883</v>
+        <v>168.87664</v>
       </c>
       <c r="C14" s="4">
-        <v>43.39908</v>
+        <v>42.28108</v>
       </c>
       <c r="D14" s="4">
-        <v>39.54074</v>
+        <v>38.28733</v>
       </c>
       <c r="E14" s="4">
-        <v>40.06665</v>
+        <v>41.92276</v>
       </c>
       <c r="F14" s="4">
-        <v>264.22366</v>
+        <v>243.65374</v>
       </c>
       <c r="G14" s="4">
-        <v>60.344</v>
+        <v>64.05472</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -686,19 +686,19 @@
         <v>1400.832</v>
       </c>
       <c r="C15" s="4">
-        <v>88.57600000000001</v>
+        <v>71.16800000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>79.36</v>
+        <v>71.16800000000001</v>
       </c>
       <c r="E15" s="4">
-        <v>87.55200000000001</v>
+        <v>90.624</v>
       </c>
       <c r="F15" s="4">
         <v>1499.136</v>
       </c>
       <c r="G15" s="4">
-        <v>154.624</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>1515.52</v>
+        <v>1548.288</v>
       </c>
       <c r="C16" s="4">
-        <v>100.864</v>
+        <v>77.312</v>
       </c>
       <c r="D16" s="4">
-        <v>96.768</v>
+        <v>82.432</v>
       </c>
       <c r="E16" s="4">
-        <v>108.032</v>
+        <v>110.08</v>
       </c>
       <c r="F16" s="4">
-        <v>1761.28</v>
+        <v>1744.896</v>
       </c>
       <c r="G16" s="4">
-        <v>216.064</v>
+        <v>259.072</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>8000</v>
+        <v>9225</v>
       </c>
       <c r="C21" s="3">
-        <v>14800</v>
+        <v>16000</v>
       </c>
       <c r="D21" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="E21" s="3">
-        <v>19600</v>
+        <v>19100</v>
       </c>
       <c r="F21" s="3">
-        <v>21900</v>
+        <v>20700</v>
       </c>
       <c r="G21" s="3">
-        <v>21300</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1048.576</v>
+        <v>1209.008128</v>
       </c>
       <c r="C22" s="4">
-        <v>1945.10848</v>
+        <v>2097.152</v>
       </c>
       <c r="D22" s="4">
-        <v>2139.09504</v>
+        <v>2199.912448</v>
       </c>
       <c r="E22" s="4">
-        <v>2575.302656</v>
+        <v>2502.950912</v>
       </c>
       <c r="F22" s="4">
-        <v>2875.195392</v>
+        <v>2708.471808</v>
       </c>
       <c r="G22" s="4">
-        <v>2797.600768</v>
+        <v>2681.208832</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>57.41</v>
+        <v>52.88</v>
       </c>
       <c r="C23" s="4">
-        <v>41.96</v>
+        <v>33.66</v>
       </c>
       <c r="D23" s="4">
-        <v>50.82</v>
+        <v>38.03</v>
       </c>
       <c r="E23" s="4">
-        <v>56.99</v>
+        <v>64</v>
       </c>
       <c r="F23" s="4">
-        <v>82.56999999999999</v>
+        <v>89.31</v>
       </c>
       <c r="G23" s="4">
-        <v>144.45</v>
+        <v>144.88</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="4">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4">
+        <v>70</v>
+      </c>
+      <c r="E24" s="4">
+        <v>149</v>
+      </c>
+      <c r="F24" s="4">
         <v>133</v>
       </c>
-      <c r="D24" s="4">
-        <v>137</v>
-      </c>
-      <c r="E24" s="4">
-        <v>133</v>
-      </c>
-      <c r="F24" s="4">
-        <v>137</v>
-      </c>
       <c r="G24" s="4">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>1303</v>
+        <v>922</v>
       </c>
       <c r="C25" s="4">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D25" s="4">
-        <v>963</v>
+        <v>196</v>
       </c>
       <c r="E25" s="4">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F25" s="4">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="G25" s="4">
-        <v>1004</v>
+        <v>971</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>301000</v>
+        <v>328000</v>
       </c>
       <c r="C30" s="3">
-        <v>452000</v>
+        <v>415000</v>
       </c>
       <c r="D30" s="3">
-        <v>514000</v>
+        <v>537000</v>
       </c>
       <c r="E30" s="3">
-        <v>557000</v>
+        <v>586000</v>
       </c>
       <c r="F30" s="3">
-        <v>593000</v>
+        <v>558000</v>
       </c>
       <c r="G30" s="3">
-        <v>654000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>1231.028224</v>
+        <v>1342.17728</v>
       </c>
       <c r="C31" s="4">
-        <v>1851.785216</v>
+        <v>1698.69312</v>
       </c>
       <c r="D31" s="4">
-        <v>2105.540608</v>
+        <v>2199.912448</v>
       </c>
       <c r="E31" s="4">
-        <v>2279.604224</v>
+        <v>2402.287616</v>
       </c>
       <c r="F31" s="4">
-        <v>2429.550592</v>
+        <v>2284.847104</v>
       </c>
       <c r="G31" s="4">
-        <v>2678.063104</v>
+        <v>2765.094912</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>1.11595</v>
+        <v>1.10329</v>
       </c>
       <c r="C32" s="4">
-        <v>1.18328</v>
+        <v>1.19733</v>
       </c>
       <c r="D32" s="4">
-        <v>1.28574</v>
+        <v>1.3056</v>
       </c>
       <c r="E32" s="4">
-        <v>1.65655</v>
+        <v>1.68041</v>
       </c>
       <c r="F32" s="4">
-        <v>2.63908</v>
+        <v>2.76503</v>
       </c>
       <c r="G32" s="4">
-        <v>4.28205</v>
+        <v>4.58971</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>1.704</v>
+        <v>1.688</v>
       </c>
       <c r="C33" s="4">
-        <v>1.864</v>
+        <v>1.88</v>
       </c>
       <c r="D33" s="4">
-        <v>2.024</v>
+        <v>1.976</v>
       </c>
       <c r="E33" s="4">
-        <v>2.736</v>
+        <v>2.928</v>
       </c>
       <c r="F33" s="4">
-        <v>4.576000000000001</v>
+        <v>4.832</v>
       </c>
       <c r="G33" s="4">
-        <v>6.432</v>
+        <v>6.496</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1001,16 +1001,16 @@
         <v>6.368</v>
       </c>
       <c r="C34" s="4">
-        <v>6.56</v>
+        <v>6.688</v>
       </c>
       <c r="D34" s="4">
-        <v>6.624000000000001</v>
+        <v>6.432</v>
       </c>
       <c r="E34" s="4">
-        <v>6.944</v>
+        <v>7.072</v>
       </c>
       <c r="F34" s="4">
-        <v>9.407999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="G34" s="4">
         <v>10.944</v>
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>14800</v>
+        <v>17700</v>
       </c>
       <c r="C39" s="3">
-        <v>21100</v>
+        <v>32000</v>
       </c>
       <c r="D39" s="3">
-        <v>8551</v>
+        <v>25900</v>
       </c>
       <c r="E39" s="3">
-        <v>10300</v>
+        <v>8677</v>
       </c>
       <c r="F39" s="3">
-        <v>8641</v>
+        <v>8155</v>
       </c>
       <c r="G39" s="3">
-        <v>8661</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1945.10848</v>
+        <v>2314.207232</v>
       </c>
       <c r="C40" s="4">
-        <v>2767.192064</v>
+        <v>4194.304</v>
       </c>
       <c r="D40" s="4">
-        <v>1120.927744</v>
+        <v>3398.434816</v>
       </c>
       <c r="E40" s="4">
-        <v>1352.66304</v>
+        <v>1137.70496</v>
       </c>
       <c r="F40" s="4">
-        <v>1132.46208</v>
+        <v>1068.498944</v>
       </c>
       <c r="G40" s="4">
-        <v>1135.607808</v>
+        <v>1364.197376</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>66.34</v>
+        <v>55.6</v>
       </c>
       <c r="C41" s="4">
-        <v>93.73999999999999</v>
+        <v>60.78</v>
       </c>
       <c r="D41" s="4">
-        <v>462.41</v>
+        <v>153.15</v>
       </c>
       <c r="E41" s="4">
-        <v>754.8200000000001</v>
+        <v>902.46</v>
       </c>
       <c r="F41" s="4">
-        <v>1841.76</v>
+        <v>1950.27</v>
       </c>
       <c r="G41" s="4">
-        <v>3679.16</v>
+        <v>3063.62</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="C42" s="4">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D42" s="4">
-        <v>1713</v>
+        <v>383</v>
       </c>
       <c r="E42" s="4">
-        <v>2573</v>
+        <v>3261</v>
       </c>
       <c r="F42" s="4">
-        <v>7308</v>
+        <v>7701</v>
       </c>
       <c r="G42" s="4">
-        <v>14484</v>
+        <v>13829</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="D43" s="4">
-        <v>1975</v>
+        <v>469</v>
       </c>
       <c r="E43" s="4">
-        <v>3785</v>
+        <v>4555</v>
       </c>
       <c r="F43" s="4">
-        <v>8848</v>
+        <v>9634</v>
       </c>
       <c r="G43" s="4">
-        <v>16712</v>
+        <v>16188</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1198,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>119000</v>
+        <v>155000</v>
       </c>
       <c r="C48" s="3">
-        <v>171000</v>
+        <v>169000</v>
       </c>
       <c r="D48" s="3">
-        <v>261000</v>
+        <v>263000</v>
       </c>
       <c r="E48" s="3">
-        <v>319000</v>
+        <v>277000</v>
       </c>
       <c r="F48" s="3">
-        <v>336000</v>
+        <v>249000</v>
       </c>
       <c r="G48" s="3">
-        <v>1015000</v>
+        <v>562000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>486.539264</v>
+        <v>636.485632</v>
       </c>
       <c r="C49" s="4">
-        <v>699.4001919999999</v>
+        <v>692.06016</v>
       </c>
       <c r="D49" s="4">
-        <v>1069.54752</v>
+        <v>1077.936128</v>
       </c>
       <c r="E49" s="4">
-        <v>1306.525696</v>
+        <v>1133.510656</v>
       </c>
       <c r="F49" s="4">
-        <v>1377.828864</v>
+        <v>1019.215872</v>
       </c>
       <c r="G49" s="4">
-        <v>4157.60384</v>
+        <v>2301.62432</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>7.912560000000001</v>
+        <v>6.02574</v>
       </c>
       <c r="C50" s="4">
-        <v>9.878620000000002</v>
+        <v>9.709899999999999</v>
       </c>
       <c r="D50" s="4">
-        <v>14.48083</v>
+        <v>14.51409</v>
       </c>
       <c r="E50" s="4">
-        <v>23.96495</v>
+        <v>27.85442</v>
       </c>
       <c r="F50" s="4">
-        <v>46.78743</v>
+        <v>63.31621</v>
       </c>
       <c r="G50" s="4">
-        <v>30.96286</v>
+        <v>56.08361</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,22 +1267,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.784</v>
+        <v>1.688</v>
       </c>
       <c r="C51" s="4">
         <v>1.832</v>
       </c>
       <c r="D51" s="4">
-        <v>2.064</v>
+        <v>2.008</v>
       </c>
       <c r="E51" s="4">
-        <v>2.096</v>
+        <v>2.288</v>
       </c>
       <c r="F51" s="4">
         <v>2.8</v>
       </c>
       <c r="G51" s="4">
-        <v>2.352</v>
+        <v>2.768</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>109.056</v>
+        <v>84.48</v>
       </c>
       <c r="C52" s="4">
-        <v>120.32</v>
+        <v>113.152</v>
       </c>
       <c r="D52" s="4">
-        <v>370.688</v>
+        <v>444.416</v>
       </c>
       <c r="E52" s="4">
-        <v>831.4880000000001</v>
+        <v>1122.304</v>
       </c>
       <c r="F52" s="4">
-        <v>1515.52</v>
+        <v>2932.736</v>
       </c>
       <c r="G52" s="4">
-        <v>1417.216</v>
+        <v>1941.504</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>8752</v>
+        <v>8677</v>
       </c>
       <c r="C57" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="D57" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="E57" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F57" s="3">
         <v>13600</v>
       </c>
-      <c r="F57" s="3">
-        <v>13700</v>
-      </c>
       <c r="G57" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>1147.142144</v>
+        <v>1137.70496</v>
       </c>
       <c r="C58" s="4">
-        <v>1335.885824</v>
+        <v>1507.852288</v>
       </c>
       <c r="D58" s="4">
-        <v>1677.7216</v>
+        <v>1612.709888</v>
       </c>
       <c r="E58" s="4">
-        <v>1783.627776</v>
+        <v>1795.162112</v>
       </c>
       <c r="F58" s="4">
-        <v>1795.162112</v>
+        <v>1784.676352</v>
       </c>
       <c r="G58" s="4">
-        <v>1628.438528</v>
+        <v>1654.652928</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>27.07</v>
+        <v>27.19</v>
       </c>
       <c r="C59" s="4">
-        <v>29.17</v>
+        <v>28.1</v>
       </c>
       <c r="D59" s="4">
-        <v>33.51</v>
+        <v>33.07</v>
       </c>
       <c r="E59" s="4">
-        <v>42.81</v>
+        <v>42.57</v>
       </c>
       <c r="F59" s="4">
-        <v>81.88</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G59" s="4">
-        <v>142.4</v>
+        <v>142.68</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1416,19 +1416,19 @@
         <v>30</v>
       </c>
       <c r="C60" s="4">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D60" s="4">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E60" s="4">
         <v>60</v>
       </c>
       <c r="F60" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G60" s="4">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D61" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61" s="4">
         <v>126</v>
       </c>
       <c r="F61" s="4">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G61" s="4">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>280000</v>
+        <v>241000</v>
       </c>
       <c r="C66" s="3">
-        <v>343000</v>
+        <v>338000</v>
       </c>
       <c r="D66" s="3">
-        <v>396000</v>
+        <v>405000</v>
       </c>
       <c r="E66" s="3">
-        <v>428000</v>
+        <v>438000</v>
       </c>
       <c r="F66" s="3">
-        <v>439000</v>
+        <v>423000</v>
       </c>
       <c r="G66" s="3">
-        <v>407000</v>
+        <v>402000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>1147.142144</v>
+        <v>986.710016</v>
       </c>
       <c r="C67" s="4">
-        <v>1405.09184</v>
+        <v>1384.12032</v>
       </c>
       <c r="D67" s="4">
-        <v>1622.147072</v>
+        <v>1656.75008</v>
       </c>
       <c r="E67" s="4">
-        <v>1751.12192</v>
+        <v>1793.06496</v>
       </c>
       <c r="F67" s="4">
-        <v>1800.404992</v>
+        <v>1733.296128</v>
       </c>
       <c r="G67" s="4">
-        <v>1666.187264</v>
+        <v>1647.312896</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>1.01305</v>
+        <v>1.01687</v>
       </c>
       <c r="C68" s="4">
-        <v>1.04439</v>
+        <v>1.04411</v>
       </c>
       <c r="D68" s="4">
-        <v>1.1248</v>
+        <v>1.12142</v>
       </c>
       <c r="E68" s="4">
-        <v>1.38453</v>
+        <v>1.3743</v>
       </c>
       <c r="F68" s="4">
-        <v>2.51733</v>
+        <v>2.51215</v>
       </c>
       <c r="G68" s="4">
-        <v>4.12311</v>
+        <v>4.24955</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>2.288</v>
+        <v>3.088</v>
       </c>
       <c r="C69" s="4">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="D69" s="4">
-        <v>2.024</v>
+        <v>1.896</v>
       </c>
       <c r="E69" s="4">
-        <v>2.8</v>
+        <v>2.736</v>
       </c>
       <c r="F69" s="4">
-        <v>4.512</v>
+        <v>4.448</v>
       </c>
       <c r="G69" s="4">
-        <v>5.984</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1585,19 +1585,19 @@
         <v>4.256</v>
       </c>
       <c r="C70" s="4">
-        <v>4.384</v>
+        <v>4.32</v>
       </c>
       <c r="D70" s="4">
         <v>4.448</v>
       </c>
       <c r="E70" s="4">
-        <v>5.536</v>
+        <v>5.344</v>
       </c>
       <c r="F70" s="4">
         <v>9.152000000000001</v>
       </c>
       <c r="G70" s="4">
-        <v>12.736</v>
+        <v>13.376</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>7937</v>
+        <v>8605</v>
       </c>
       <c r="C3" s="3">
-        <v>13600</v>
+        <v>17200</v>
       </c>
       <c r="D3" s="3">
-        <v>4035</v>
+        <v>30100</v>
       </c>
       <c r="E3" s="3">
-        <v>8249</v>
+        <v>36100</v>
       </c>
       <c r="F3" s="3">
-        <v>12500</v>
+        <v>33000</v>
       </c>
       <c r="G3" s="3">
-        <v>12900</v>
+        <v>27400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1040.187392</v>
+        <v>1128.267776</v>
       </c>
       <c r="C4" s="4">
-        <v>1777.33632</v>
+        <v>2255.486976</v>
       </c>
       <c r="D4" s="4">
-        <v>528.482304</v>
+        <v>3947.88864</v>
       </c>
       <c r="E4" s="4">
-        <v>1081.081856</v>
+        <v>4730.126336</v>
       </c>
       <c r="F4" s="4">
-        <v>1636.827136</v>
+        <v>4455.399424</v>
       </c>
       <c r="G4" s="4">
-        <v>1690.304512</v>
+        <v>3585.081344</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>125.24</v>
+        <v>115.11</v>
       </c>
       <c r="C5" s="4">
-        <v>144.85</v>
+        <v>115.02</v>
       </c>
       <c r="D5" s="4">
-        <v>911.16</v>
+        <v>131.27</v>
       </c>
       <c r="E5" s="4">
-        <v>805.22</v>
+        <v>206.65</v>
       </c>
       <c r="F5" s="4">
-        <v>1191.82</v>
+        <v>455.6</v>
       </c>
       <c r="G5" s="4">
-        <v>2373.09</v>
+        <v>1146.99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C6" s="4">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D6" s="4">
-        <v>1827</v>
+        <v>241</v>
       </c>
       <c r="E6" s="4">
-        <v>1893</v>
+        <v>453</v>
       </c>
       <c r="F6" s="4">
-        <v>2704</v>
+        <v>1037</v>
       </c>
       <c r="G6" s="4">
-        <v>5735</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="C7" s="4">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="D7" s="4">
-        <v>2057</v>
+        <v>265</v>
       </c>
       <c r="E7" s="4">
-        <v>2114</v>
+        <v>635</v>
       </c>
       <c r="F7" s="4">
-        <v>3752</v>
+        <v>1205</v>
       </c>
       <c r="G7" s="4">
-        <v>7308</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>5879</v>
+        <v>5038</v>
       </c>
       <c r="C12" s="3">
-        <v>46100</v>
+        <v>10400</v>
       </c>
       <c r="D12" s="3">
-        <v>99100</v>
+        <v>17300</v>
       </c>
       <c r="E12" s="3">
-        <v>143000</v>
+        <v>29900</v>
       </c>
       <c r="F12" s="3">
-        <v>63300</v>
+        <v>63000</v>
       </c>
       <c r="G12" s="3">
-        <v>436000</v>
+        <v>389000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>23.068672</v>
+        <v>20.6569472</v>
       </c>
       <c r="C13" s="4">
-        <v>188.74368</v>
+        <v>42.6770432</v>
       </c>
       <c r="D13" s="4">
-        <v>405.798912</v>
+        <v>70.67402240000001</v>
       </c>
       <c r="E13" s="4">
-        <v>587.2025599999999</v>
+        <v>122.683392</v>
       </c>
       <c r="F13" s="4">
-        <v>258.998272</v>
+        <v>262.144</v>
       </c>
       <c r="G13" s="4">
-        <v>1784.676352</v>
+        <v>1592.786944</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>168.87664</v>
+        <v>198.16194</v>
       </c>
       <c r="C14" s="4">
-        <v>42.28108</v>
+        <v>189.51458</v>
       </c>
       <c r="D14" s="4">
-        <v>38.28733</v>
+        <v>223.29757</v>
       </c>
       <c r="E14" s="4">
-        <v>41.92276</v>
+        <v>260.96951</v>
       </c>
       <c r="F14" s="4">
-        <v>243.65374</v>
+        <v>246.39025</v>
       </c>
       <c r="G14" s="4">
-        <v>64.05472</v>
+        <v>79.07133999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>1400.832</v>
+        <v>1417.216</v>
       </c>
       <c r="C15" s="4">
-        <v>71.16800000000001</v>
+        <v>1433.6</v>
       </c>
       <c r="D15" s="4">
-        <v>71.16800000000001</v>
+        <v>1449.984</v>
       </c>
       <c r="E15" s="4">
-        <v>90.624</v>
+        <v>1482.752</v>
       </c>
       <c r="F15" s="4">
         <v>1499.136</v>
       </c>
       <c r="G15" s="4">
-        <v>179.2</v>
+        <v>240.64</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>1548.288</v>
+        <v>1531.904</v>
       </c>
       <c r="C16" s="4">
-        <v>77.312</v>
+        <v>1531.904</v>
       </c>
       <c r="D16" s="4">
-        <v>82.432</v>
+        <v>1564.672</v>
       </c>
       <c r="E16" s="4">
-        <v>110.08</v>
+        <v>1613.824</v>
       </c>
       <c r="F16" s="4">
-        <v>1744.896</v>
+        <v>1712.128</v>
       </c>
       <c r="G16" s="4">
-        <v>259.072</v>
+        <v>354.304</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>9225</v>
+        <v>11100</v>
       </c>
       <c r="C21" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="D21" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="E21" s="3">
-        <v>19100</v>
+        <v>20100</v>
       </c>
       <c r="F21" s="3">
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="G21" s="3">
-        <v>20500</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1209.008128</v>
+        <v>1458.569216</v>
       </c>
       <c r="C22" s="4">
-        <v>2097.152</v>
+        <v>1973.420032</v>
       </c>
       <c r="D22" s="4">
-        <v>2199.912448</v>
+        <v>2236.612608</v>
       </c>
       <c r="E22" s="4">
-        <v>2502.950912</v>
+        <v>2638.217216</v>
       </c>
       <c r="F22" s="4">
-        <v>2708.471808</v>
+        <v>2753.560576</v>
       </c>
       <c r="G22" s="4">
-        <v>2681.208832</v>
+        <v>2812.280832</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>52.88</v>
+        <v>24.87</v>
       </c>
       <c r="C23" s="4">
-        <v>33.66</v>
+        <v>22.51</v>
       </c>
       <c r="D23" s="4">
-        <v>38.03</v>
+        <v>27.75</v>
       </c>
       <c r="E23" s="4">
-        <v>64</v>
+        <v>39.14</v>
       </c>
       <c r="F23" s="4">
-        <v>89.31</v>
+        <v>77.91</v>
       </c>
       <c r="G23" s="4">
-        <v>144.88</v>
+        <v>145.16</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="F24" s="4">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G24" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>922</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="E25" s="4">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4">
-        <v>388</v>
+        <v>149</v>
       </c>
       <c r="G25" s="4">
-        <v>971</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>328000</v>
+        <v>395000</v>
       </c>
       <c r="C30" s="3">
-        <v>415000</v>
+        <v>546000</v>
       </c>
       <c r="D30" s="3">
-        <v>537000</v>
+        <v>690000</v>
       </c>
       <c r="E30" s="3">
+        <v>790000</v>
+      </c>
+      <c r="F30" s="3">
         <v>586000</v>
       </c>
-      <c r="F30" s="3">
-        <v>558000</v>
-      </c>
       <c r="G30" s="3">
-        <v>675000</v>
+        <v>683000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>1342.17728</v>
+        <v>1616.904192</v>
       </c>
       <c r="C31" s="4">
-        <v>1698.69312</v>
+        <v>2236.612608</v>
       </c>
       <c r="D31" s="4">
-        <v>2199.912448</v>
+        <v>2825.91232</v>
       </c>
       <c r="E31" s="4">
+        <v>3233.808384</v>
+      </c>
+      <c r="F31" s="4">
         <v>2402.287616</v>
       </c>
-      <c r="F31" s="4">
-        <v>2284.847104</v>
-      </c>
       <c r="G31" s="4">
-        <v>2765.094912</v>
+        <v>2797.600768</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>1.10329</v>
+        <v>0.96441</v>
       </c>
       <c r="C32" s="4">
-        <v>1.19733</v>
+        <v>1.04086</v>
       </c>
       <c r="D32" s="4">
-        <v>1.3056</v>
+        <v>1.14305</v>
       </c>
       <c r="E32" s="4">
-        <v>1.68041</v>
+        <v>1.4879</v>
       </c>
       <c r="F32" s="4">
-        <v>2.76503</v>
+        <v>2.55293</v>
       </c>
       <c r="G32" s="4">
-        <v>4.58971</v>
+        <v>4.3003</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>1.688</v>
+        <v>1.608</v>
       </c>
       <c r="C33" s="4">
-        <v>1.88</v>
+        <v>1.768</v>
       </c>
       <c r="D33" s="4">
-        <v>1.976</v>
+        <v>1.8</v>
       </c>
       <c r="E33" s="4">
-        <v>2.928</v>
+        <v>2.448</v>
       </c>
       <c r="F33" s="4">
-        <v>4.832</v>
+        <v>4.256</v>
       </c>
       <c r="G33" s="4">
-        <v>6.496</v>
+        <v>6.176</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>6.368</v>
+        <v>1.848</v>
       </c>
       <c r="C34" s="4">
-        <v>6.688</v>
+        <v>2.128</v>
       </c>
       <c r="D34" s="4">
-        <v>6.432</v>
+        <v>2.224</v>
       </c>
       <c r="E34" s="4">
-        <v>7.072</v>
+        <v>3.152</v>
       </c>
       <c r="F34" s="4">
-        <v>9.92</v>
+        <v>5.664</v>
       </c>
       <c r="G34" s="4">
-        <v>10.944</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>17700</v>
+        <v>3696</v>
       </c>
       <c r="C39" s="3">
-        <v>32000</v>
+        <v>5885</v>
       </c>
       <c r="D39" s="3">
-        <v>25900</v>
+        <v>8551</v>
       </c>
       <c r="E39" s="3">
-        <v>8677</v>
+        <v>10000</v>
       </c>
       <c r="F39" s="3">
-        <v>8155</v>
+        <v>11100</v>
       </c>
       <c r="G39" s="3">
-        <v>10400</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>2314.207232</v>
+        <v>484.442112</v>
       </c>
       <c r="C40" s="4">
-        <v>4194.304</v>
+        <v>771.751936</v>
       </c>
       <c r="D40" s="4">
-        <v>3398.434816</v>
+        <v>1120.927744</v>
       </c>
       <c r="E40" s="4">
-        <v>1137.70496</v>
+        <v>1310.72</v>
       </c>
       <c r="F40" s="4">
-        <v>1068.498944</v>
+        <v>1459.617792</v>
       </c>
       <c r="G40" s="4">
-        <v>1364.197376</v>
+        <v>1310.72</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>55.6</v>
+        <v>269.95</v>
       </c>
       <c r="C41" s="4">
-        <v>60.78</v>
+        <v>338.63</v>
       </c>
       <c r="D41" s="4">
-        <v>153.15</v>
+        <v>465.52</v>
       </c>
       <c r="E41" s="4">
-        <v>902.46</v>
+        <v>790.37</v>
       </c>
       <c r="F41" s="4">
-        <v>1950.27</v>
+        <v>1433.13</v>
       </c>
       <c r="G41" s="4">
-        <v>3063.62</v>
+        <v>3191.52</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>151</v>
+        <v>1598</v>
       </c>
       <c r="C42" s="4">
-        <v>161</v>
+        <v>1598</v>
       </c>
       <c r="D42" s="4">
-        <v>383</v>
+        <v>1876</v>
       </c>
       <c r="E42" s="4">
-        <v>3261</v>
+        <v>2999</v>
       </c>
       <c r="F42" s="4">
-        <v>7701</v>
+        <v>6259</v>
       </c>
       <c r="G42" s="4">
-        <v>13829</v>
+        <v>13173</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>165</v>
+        <v>1827</v>
       </c>
       <c r="C43" s="4">
-        <v>206</v>
+        <v>1696</v>
       </c>
       <c r="D43" s="4">
-        <v>469</v>
+        <v>2180</v>
       </c>
       <c r="E43" s="4">
-        <v>4555</v>
+        <v>4146</v>
       </c>
       <c r="F43" s="4">
-        <v>9634</v>
+        <v>7504</v>
       </c>
       <c r="G43" s="4">
-        <v>16188</v>
+        <v>15008</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1198,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>155000</v>
+        <v>122000</v>
       </c>
       <c r="C48" s="3">
-        <v>169000</v>
+        <v>172000</v>
       </c>
       <c r="D48" s="3">
-        <v>263000</v>
+        <v>286000</v>
       </c>
       <c r="E48" s="3">
-        <v>277000</v>
+        <v>287000</v>
       </c>
       <c r="F48" s="3">
-        <v>249000</v>
+        <v>290000</v>
       </c>
       <c r="G48" s="3">
-        <v>562000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>636.485632</v>
+        <v>501.219328</v>
       </c>
       <c r="C49" s="4">
-        <v>692.06016</v>
+        <v>706.740224</v>
       </c>
       <c r="D49" s="4">
-        <v>1077.936128</v>
+        <v>1169.16224</v>
       </c>
       <c r="E49" s="4">
-        <v>1133.510656</v>
+        <v>1174.40512</v>
       </c>
       <c r="F49" s="4">
-        <v>1019.215872</v>
+        <v>1188.036608</v>
       </c>
       <c r="G49" s="4">
-        <v>2301.62432</v>
+        <v>1227.882496</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>6.02574</v>
+        <v>7.94214</v>
       </c>
       <c r="C50" s="4">
-        <v>9.709899999999999</v>
+        <v>11.33679</v>
       </c>
       <c r="D50" s="4">
-        <v>14.51409</v>
+        <v>13.81346</v>
       </c>
       <c r="E50" s="4">
-        <v>27.85442</v>
+        <v>27.46817</v>
       </c>
       <c r="F50" s="4">
-        <v>63.31621</v>
+        <v>54.81034</v>
       </c>
       <c r="G50" s="4">
-        <v>56.08361</v>
+        <v>106.33994</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1270,19 +1270,19 @@
         <v>1.688</v>
       </c>
       <c r="C51" s="4">
-        <v>1.832</v>
+        <v>1.752</v>
       </c>
       <c r="D51" s="4">
-        <v>2.008</v>
+        <v>1.704</v>
       </c>
       <c r="E51" s="4">
-        <v>2.288</v>
+        <v>1.656</v>
       </c>
       <c r="F51" s="4">
-        <v>2.8</v>
+        <v>1.656</v>
       </c>
       <c r="G51" s="4">
-        <v>2.768</v>
+        <v>1.656</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>84.48</v>
+        <v>37.632</v>
       </c>
       <c r="C52" s="4">
-        <v>113.152</v>
+        <v>171.008</v>
       </c>
       <c r="D52" s="4">
-        <v>444.416</v>
+        <v>391.168</v>
       </c>
       <c r="E52" s="4">
-        <v>1122.304</v>
+        <v>872.448</v>
       </c>
       <c r="F52" s="4">
-        <v>2932.736</v>
+        <v>2179.072</v>
       </c>
       <c r="G52" s="4">
-        <v>1941.504</v>
+        <v>4145.152</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>8677</v>
+        <v>8752</v>
       </c>
       <c r="C57" s="3">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="D57" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="E57" s="3">
-        <v>13700</v>
+        <v>12700</v>
       </c>
       <c r="F57" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="G57" s="3">
-        <v>12600</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>1137.70496</v>
+        <v>1147.142144</v>
       </c>
       <c r="C58" s="4">
-        <v>1507.852288</v>
+        <v>1435.500544</v>
       </c>
       <c r="D58" s="4">
-        <v>1612.709888</v>
+        <v>1693.45024</v>
       </c>
       <c r="E58" s="4">
-        <v>1795.162112</v>
+        <v>1667.23584</v>
       </c>
       <c r="F58" s="4">
-        <v>1784.676352</v>
+        <v>1837.105152</v>
       </c>
       <c r="G58" s="4">
-        <v>1654.652928</v>
+        <v>1849.688064</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>27.19</v>
+        <v>21.65344</v>
       </c>
       <c r="C59" s="4">
-        <v>28.1</v>
+        <v>23.42096</v>
       </c>
       <c r="D59" s="4">
-        <v>33.07</v>
+        <v>27.76456</v>
       </c>
       <c r="E59" s="4">
-        <v>42.57</v>
+        <v>38.03683</v>
       </c>
       <c r="F59" s="4">
-        <v>83.59999999999999</v>
+        <v>77.91</v>
       </c>
       <c r="G59" s="4">
-        <v>142.68</v>
+        <v>138.94</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>30</v>
+        <v>23.424</v>
       </c>
       <c r="C60" s="4">
-        <v>31</v>
+        <v>25.472</v>
       </c>
       <c r="D60" s="4">
-        <v>37</v>
+        <v>30.592</v>
       </c>
       <c r="E60" s="4">
-        <v>60</v>
+        <v>50.944</v>
       </c>
       <c r="F60" s="4">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G60" s="4">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>110</v>
+        <v>24.96</v>
       </c>
       <c r="C61" s="4">
-        <v>115</v>
+        <v>27.008</v>
       </c>
       <c r="D61" s="4">
-        <v>116</v>
+        <v>33.536</v>
       </c>
       <c r="E61" s="4">
-        <v>126</v>
+        <v>54.528</v>
       </c>
       <c r="F61" s="4">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G61" s="4">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>241000</v>
+        <v>262000</v>
       </c>
       <c r="C66" s="3">
-        <v>338000</v>
+        <v>349000</v>
       </c>
       <c r="D66" s="3">
-        <v>405000</v>
+        <v>400000</v>
       </c>
       <c r="E66" s="3">
-        <v>438000</v>
+        <v>419000</v>
       </c>
       <c r="F66" s="3">
-        <v>423000</v>
+        <v>441000</v>
       </c>
       <c r="G66" s="3">
-        <v>402000</v>
+        <v>436000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>986.710016</v>
+        <v>1073.741824</v>
       </c>
       <c r="C67" s="4">
-        <v>1384.12032</v>
+        <v>1428.160512</v>
       </c>
       <c r="D67" s="4">
-        <v>1656.75008</v>
+        <v>1636.827136</v>
       </c>
       <c r="E67" s="4">
-        <v>1793.06496</v>
+        <v>1717.567488</v>
       </c>
       <c r="F67" s="4">
-        <v>1733.296128</v>
+        <v>1807.745024</v>
       </c>
       <c r="G67" s="4">
-        <v>1647.312896</v>
+        <v>1786.773504</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>1.01687</v>
+        <v>0.8619600000000001</v>
       </c>
       <c r="C68" s="4">
-        <v>1.04411</v>
+        <v>0.8993200000000001</v>
       </c>
       <c r="D68" s="4">
-        <v>1.12142</v>
+        <v>0.97435</v>
       </c>
       <c r="E68" s="4">
-        <v>1.3743</v>
+        <v>1.25356</v>
       </c>
       <c r="F68" s="4">
-        <v>2.51215</v>
+        <v>2.3606</v>
       </c>
       <c r="G68" s="4">
-        <v>4.24955</v>
+        <v>4.0742</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>3.088</v>
+        <v>1.272</v>
       </c>
       <c r="C69" s="4">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D69" s="4">
-        <v>1.896</v>
+        <v>1.544</v>
       </c>
       <c r="E69" s="4">
-        <v>2.736</v>
+        <v>2.064</v>
       </c>
       <c r="F69" s="4">
-        <v>4.448</v>
+        <v>3.984</v>
       </c>
       <c r="G69" s="4">
-        <v>6.048</v>
+        <v>5.664</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>4.256</v>
+        <v>1.512</v>
       </c>
       <c r="C70" s="4">
-        <v>4.32</v>
+        <v>1.688</v>
       </c>
       <c r="D70" s="4">
-        <v>4.448</v>
+        <v>1.928</v>
       </c>
       <c r="E70" s="4">
-        <v>5.344</v>
+        <v>2.864</v>
       </c>
       <c r="F70" s="4">
-        <v>9.152000000000001</v>
+        <v>6.24</v>
       </c>
       <c r="G70" s="4">
-        <v>13.376</v>
+        <v>9.664</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>11000</v>
+        <v>1398</v>
       </c>
       <c r="C3" s="3">
-        <v>21100</v>
+        <v>3421</v>
       </c>
       <c r="D3" s="3">
-        <v>4530</v>
+        <v>4971</v>
       </c>
       <c r="E3" s="3">
-        <v>8972</v>
+        <v>28700</v>
       </c>
       <c r="F3" s="3">
-        <v>11000</v>
+        <v>31600</v>
       </c>
       <c r="G3" s="3">
-        <v>11300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>5732</v>
+        <v>19600</v>
       </c>
       <c r="C8" s="3">
-        <v>69200</v>
+        <v>30400</v>
       </c>
       <c r="D8" s="3">
-        <v>19700</v>
+        <v>56200</v>
       </c>
       <c r="E8" s="3">
-        <v>170000</v>
+        <v>107000</v>
       </c>
       <c r="F8" s="3">
-        <v>291000</v>
+        <v>187000</v>
       </c>
       <c r="G8" s="3">
-        <v>109000</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>11000</v>
+        <v>4751</v>
       </c>
       <c r="C13" s="3">
-        <v>16100</v>
+        <v>5538</v>
       </c>
       <c r="D13" s="3">
-        <v>19000</v>
+        <v>5734</v>
       </c>
       <c r="E13" s="3">
-        <v>21800</v>
+        <v>5993</v>
       </c>
       <c r="F13" s="3">
-        <v>20800</v>
+        <v>5514</v>
       </c>
       <c r="G13" s="3">
-        <v>20800</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>349000</v>
+        <v>381000</v>
       </c>
       <c r="C18" s="3">
-        <v>434000</v>
+        <v>484000</v>
       </c>
       <c r="D18" s="3">
-        <v>512000</v>
+        <v>622000</v>
       </c>
       <c r="E18" s="3">
-        <v>572000</v>
+        <v>647000</v>
       </c>
       <c r="F18" s="3">
-        <v>623000</v>
+        <v>200000</v>
       </c>
       <c r="G18" s="3">
-        <v>668000</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>15300</v>
+        <v>3312</v>
       </c>
       <c r="C23" s="3">
-        <v>28400</v>
+        <v>5221</v>
       </c>
       <c r="D23" s="3">
-        <v>36200</v>
+        <v>12300</v>
       </c>
       <c r="E23" s="3">
-        <v>9277</v>
+        <v>7488</v>
       </c>
       <c r="F23" s="3">
-        <v>9858</v>
+        <v>10500</v>
       </c>
       <c r="G23" s="3">
-        <v>10200</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>108000</v>
+        <v>127000</v>
       </c>
       <c r="C28" s="3">
-        <v>190000</v>
+        <v>161000</v>
       </c>
       <c r="D28" s="3">
-        <v>289000</v>
+        <v>411000</v>
       </c>
       <c r="E28" s="3">
-        <v>315000</v>
+        <v>266000</v>
       </c>
       <c r="F28" s="3">
-        <v>326000</v>
+        <v>343000</v>
       </c>
       <c r="G28" s="3">
-        <v>1169000</v>
+        <v>463000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>9481</v>
+        <v>10800</v>
       </c>
       <c r="C33" s="3">
-        <v>11300</v>
+        <v>12600</v>
       </c>
       <c r="D33" s="3">
         <v>13000</v>
       </c>
       <c r="E33" s="3">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="F33" s="3">
-        <v>13500</v>
+        <v>15200</v>
       </c>
       <c r="G33" s="3">
-        <v>13500</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>256000</v>
+        <v>322000</v>
       </c>
       <c r="C38" s="3">
-        <v>347000</v>
+        <v>386000</v>
       </c>
       <c r="D38" s="3">
-        <v>412000</v>
+        <v>450000</v>
       </c>
       <c r="E38" s="3">
-        <v>449000</v>
+        <v>476000</v>
       </c>
       <c r="F38" s="3">
-        <v>438000</v>
+        <v>490000</v>
       </c>
       <c r="G38" s="3">
-        <v>432000</v>
+        <v>492000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1398</v>
+        <v>1279</v>
       </c>
       <c r="C3" s="3">
-        <v>3421</v>
+        <v>2319</v>
       </c>
       <c r="D3" s="3">
-        <v>4971</v>
+        <v>5139</v>
       </c>
       <c r="E3" s="3">
-        <v>28700</v>
+        <v>10500</v>
       </c>
       <c r="F3" s="3">
-        <v>31600</v>
+        <v>14800</v>
       </c>
       <c r="G3" s="3">
-        <v>30000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>19600</v>
+        <v>15600</v>
       </c>
       <c r="C8" s="3">
-        <v>30400</v>
+        <v>16000</v>
       </c>
       <c r="D8" s="3">
-        <v>56200</v>
+        <v>28200</v>
       </c>
       <c r="E8" s="3">
-        <v>107000</v>
+        <v>72600</v>
       </c>
       <c r="F8" s="3">
-        <v>187000</v>
+        <v>134000</v>
       </c>
       <c r="G8" s="3">
-        <v>286000</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>4751</v>
+        <v>10800</v>
       </c>
       <c r="C13" s="3">
-        <v>5538</v>
+        <v>16400</v>
       </c>
       <c r="D13" s="3">
-        <v>5734</v>
+        <v>19700</v>
       </c>
       <c r="E13" s="3">
-        <v>5993</v>
+        <v>21300</v>
       </c>
       <c r="F13" s="3">
-        <v>5514</v>
+        <v>21800</v>
       </c>
       <c r="G13" s="3">
-        <v>4914</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>381000</v>
+        <v>358000</v>
       </c>
       <c r="C18" s="3">
-        <v>484000</v>
+        <v>428000</v>
       </c>
       <c r="D18" s="3">
-        <v>622000</v>
+        <v>525000</v>
       </c>
       <c r="E18" s="3">
-        <v>647000</v>
+        <v>589000</v>
       </c>
       <c r="F18" s="3">
-        <v>200000</v>
+        <v>618000</v>
       </c>
       <c r="G18" s="3">
-        <v>122000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3312</v>
+        <v>22300</v>
       </c>
       <c r="C23" s="3">
-        <v>5221</v>
+        <v>41800</v>
       </c>
       <c r="D23" s="3">
-        <v>12300</v>
+        <v>42000</v>
       </c>
       <c r="E23" s="3">
-        <v>7488</v>
+        <v>41400</v>
       </c>
       <c r="F23" s="3">
-        <v>10500</v>
+        <v>41700</v>
       </c>
       <c r="G23" s="3">
-        <v>16200</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>127000</v>
+        <v>110000</v>
       </c>
       <c r="C28" s="3">
-        <v>161000</v>
+        <v>1008000</v>
       </c>
       <c r="D28" s="3">
-        <v>411000</v>
+        <v>1074000</v>
       </c>
       <c r="E28" s="3">
-        <v>266000</v>
+        <v>1216000</v>
       </c>
       <c r="F28" s="3">
-        <v>343000</v>
+        <v>1226000</v>
       </c>
       <c r="G28" s="3">
-        <v>463000</v>
+        <v>1224000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="C33" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="D33" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="E33" s="3">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="F33" s="3">
-        <v>15200</v>
+        <v>14100</v>
       </c>
       <c r="G33" s="3">
-        <v>3030</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>322000</v>
+        <v>302000</v>
       </c>
       <c r="C38" s="3">
-        <v>386000</v>
+        <v>363000</v>
       </c>
       <c r="D38" s="3">
-        <v>450000</v>
+        <v>406000</v>
       </c>
       <c r="E38" s="3">
-        <v>476000</v>
+        <v>427000</v>
       </c>
       <c r="F38" s="3">
-        <v>490000</v>
+        <v>447000</v>
       </c>
       <c r="G38" s="3">
-        <v>492000</v>
+        <v>459000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1279</v>
+        <v>1052</v>
       </c>
       <c r="C3" s="3">
-        <v>2319</v>
+        <v>2503</v>
       </c>
       <c r="D3" s="3">
-        <v>5139</v>
+        <v>4873</v>
       </c>
       <c r="E3" s="3">
-        <v>10500</v>
+        <v>8953</v>
       </c>
       <c r="F3" s="3">
-        <v>14800</v>
+        <v>10800</v>
       </c>
       <c r="G3" s="3">
-        <v>14500</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>15600</v>
+        <v>10500</v>
       </c>
       <c r="C8" s="3">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="D8" s="3">
-        <v>28200</v>
+        <v>28700</v>
       </c>
       <c r="E8" s="3">
-        <v>72600</v>
+        <v>57500</v>
       </c>
       <c r="F8" s="3">
-        <v>134000</v>
+        <v>107000</v>
       </c>
       <c r="G8" s="3">
-        <v>236000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="C13" s="3">
-        <v>16400</v>
+        <v>15800</v>
       </c>
       <c r="D13" s="3">
-        <v>19700</v>
+        <v>18700</v>
       </c>
       <c r="E13" s="3">
-        <v>21300</v>
+        <v>20600</v>
       </c>
       <c r="F13" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="G13" s="3">
-        <v>22200</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>358000</v>
+        <v>366000</v>
       </c>
       <c r="C18" s="3">
-        <v>428000</v>
+        <v>431000</v>
       </c>
       <c r="D18" s="3">
-        <v>525000</v>
+        <v>542000</v>
       </c>
       <c r="E18" s="3">
-        <v>589000</v>
+        <v>630000</v>
       </c>
       <c r="F18" s="3">
-        <v>618000</v>
+        <v>612000</v>
       </c>
       <c r="G18" s="3">
-        <v>680000</v>
+        <v>633000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>22300</v>
+        <v>3282</v>
       </c>
       <c r="C23" s="3">
-        <v>41800</v>
+        <v>5876</v>
       </c>
       <c r="D23" s="3">
-        <v>42000</v>
+        <v>8799</v>
       </c>
       <c r="E23" s="3">
-        <v>41400</v>
+        <v>8489</v>
       </c>
       <c r="F23" s="3">
-        <v>41700</v>
+        <v>7774</v>
       </c>
       <c r="G23" s="3">
-        <v>42000</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>110000</v>
+        <v>102000</v>
       </c>
       <c r="C28" s="3">
-        <v>1008000</v>
+        <v>163000</v>
       </c>
       <c r="D28" s="3">
-        <v>1074000</v>
+        <v>265000</v>
       </c>
       <c r="E28" s="3">
-        <v>1216000</v>
+        <v>279000</v>
       </c>
       <c r="F28" s="3">
-        <v>1226000</v>
+        <v>274000</v>
       </c>
       <c r="G28" s="3">
-        <v>1224000</v>
+        <v>461000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -777,13 +777,13 @@
         <v>10200</v>
       </c>
       <c r="C33" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="D33" s="3">
-        <v>13300</v>
+        <v>13500</v>
       </c>
       <c r="E33" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="F33" s="3">
         <v>14100</v>
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>302000</v>
+        <v>272000</v>
       </c>
       <c r="C38" s="3">
-        <v>363000</v>
+        <v>350000</v>
       </c>
       <c r="D38" s="3">
-        <v>406000</v>
+        <v>415000</v>
       </c>
       <c r="E38" s="3">
-        <v>427000</v>
+        <v>425000</v>
       </c>
       <c r="F38" s="3">
-        <v>447000</v>
+        <v>446000</v>
       </c>
       <c r="G38" s="3">
-        <v>459000</v>
+        <v>468000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="C3" s="3">
-        <v>2503</v>
+        <v>2100</v>
       </c>
       <c r="D3" s="3">
-        <v>4873</v>
+        <v>3806</v>
       </c>
       <c r="E3" s="3">
-        <v>8953</v>
+        <v>7167</v>
       </c>
       <c r="F3" s="3">
-        <v>10800</v>
+        <v>11500</v>
       </c>
       <c r="G3" s="3">
-        <v>13000</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>10500</v>
+        <v>6253</v>
       </c>
       <c r="C8" s="3">
-        <v>14400</v>
+        <v>8360</v>
       </c>
       <c r="D8" s="3">
-        <v>28700</v>
+        <v>16600</v>
       </c>
       <c r="E8" s="3">
-        <v>57500</v>
+        <v>32300</v>
       </c>
       <c r="F8" s="3">
-        <v>107000</v>
+        <v>60900</v>
       </c>
       <c r="G8" s="3">
-        <v>175000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>11800</v>
+        <v>8462</v>
       </c>
       <c r="C13" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="D13" s="3">
-        <v>18700</v>
+        <v>17300</v>
       </c>
       <c r="E13" s="3">
-        <v>20600</v>
+        <v>19500</v>
       </c>
       <c r="F13" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="G13" s="3">
-        <v>21400</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>366000</v>
+        <v>318000</v>
       </c>
       <c r="C18" s="3">
-        <v>431000</v>
+        <v>390000</v>
       </c>
       <c r="D18" s="3">
-        <v>542000</v>
+        <v>466000</v>
       </c>
       <c r="E18" s="3">
-        <v>630000</v>
+        <v>521000</v>
       </c>
       <c r="F18" s="3">
-        <v>612000</v>
+        <v>570000</v>
       </c>
       <c r="G18" s="3">
-        <v>633000</v>
+        <v>637000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3282</v>
+        <v>13800</v>
       </c>
       <c r="C23" s="3">
-        <v>5876</v>
+        <v>23000</v>
       </c>
       <c r="D23" s="3">
-        <v>8799</v>
+        <v>29500</v>
       </c>
       <c r="E23" s="3">
-        <v>8489</v>
+        <v>32100</v>
       </c>
       <c r="F23" s="3">
-        <v>7774</v>
+        <v>34300</v>
       </c>
       <c r="G23" s="3">
-        <v>7627</v>
+        <v>38100</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>102000</v>
+        <v>415000</v>
       </c>
       <c r="C28" s="3">
-        <v>163000</v>
+        <v>676000</v>
       </c>
       <c r="D28" s="3">
-        <v>265000</v>
+        <v>950000</v>
       </c>
       <c r="E28" s="3">
-        <v>279000</v>
+        <v>1001000</v>
       </c>
       <c r="F28" s="3">
-        <v>274000</v>
+        <v>1044000</v>
       </c>
       <c r="G28" s="3">
-        <v>461000</v>
+        <v>1141000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
+        <v>7937</v>
+      </c>
+      <c r="C33" s="3">
         <v>10200</v>
       </c>
-      <c r="C33" s="3">
-        <v>12100</v>
-      </c>
       <c r="D33" s="3">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="E33" s="3">
-        <v>13800</v>
+        <v>11000</v>
       </c>
       <c r="F33" s="3">
-        <v>14100</v>
+        <v>13200</v>
       </c>
       <c r="G33" s="3">
-        <v>14600</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>272000</v>
+        <v>262000</v>
       </c>
       <c r="C38" s="3">
-        <v>350000</v>
+        <v>299000</v>
       </c>
       <c r="D38" s="3">
-        <v>415000</v>
+        <v>318000</v>
       </c>
       <c r="E38" s="3">
-        <v>425000</v>
+        <v>378000</v>
       </c>
       <c r="F38" s="3">
-        <v>446000</v>
+        <v>419000</v>
       </c>
       <c r="G38" s="3">
-        <v>468000</v>
+        <v>399000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1033</v>
+        <v>957</v>
       </c>
       <c r="C3" s="3">
-        <v>2100</v>
+        <v>1882</v>
       </c>
       <c r="D3" s="3">
-        <v>3806</v>
+        <v>3838</v>
       </c>
       <c r="E3" s="3">
-        <v>7167</v>
+        <v>8587</v>
       </c>
       <c r="F3" s="3">
-        <v>11500</v>
+        <v>12200</v>
       </c>
       <c r="G3" s="3">
-        <v>9248</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>6253</v>
+        <v>7585</v>
       </c>
       <c r="C8" s="3">
-        <v>8360</v>
+        <v>8819</v>
       </c>
       <c r="D8" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="E8" s="3">
-        <v>32300</v>
+        <v>33400</v>
       </c>
       <c r="F8" s="3">
-        <v>60900</v>
+        <v>60100</v>
       </c>
       <c r="G8" s="3">
-        <v>105000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>8462</v>
+        <v>9481</v>
       </c>
       <c r="C13" s="3">
-        <v>14700</v>
+        <v>13600</v>
       </c>
       <c r="D13" s="3">
-        <v>17300</v>
+        <v>16000</v>
       </c>
       <c r="E13" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="F13" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="G13" s="3">
-        <v>22500</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>318000</v>
+        <v>372000</v>
       </c>
       <c r="C18" s="3">
-        <v>390000</v>
+        <v>504000</v>
       </c>
       <c r="D18" s="3">
-        <v>466000</v>
+        <v>690000</v>
       </c>
       <c r="E18" s="3">
-        <v>521000</v>
+        <v>732000</v>
       </c>
       <c r="F18" s="3">
-        <v>570000</v>
+        <v>564000</v>
       </c>
       <c r="G18" s="3">
-        <v>637000</v>
+        <v>655000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>13800</v>
+        <v>4266</v>
       </c>
       <c r="C23" s="3">
-        <v>23000</v>
+        <v>4222</v>
       </c>
       <c r="D23" s="3">
-        <v>29500</v>
+        <v>7543</v>
       </c>
       <c r="E23" s="3">
-        <v>32100</v>
+        <v>10100</v>
       </c>
       <c r="F23" s="3">
-        <v>34300</v>
+        <v>10000</v>
       </c>
       <c r="G23" s="3">
-        <v>38100</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>415000</v>
+        <v>110000</v>
       </c>
       <c r="C28" s="3">
-        <v>676000</v>
+        <v>146000</v>
       </c>
       <c r="D28" s="3">
-        <v>950000</v>
+        <v>284000</v>
       </c>
       <c r="E28" s="3">
-        <v>1001000</v>
+        <v>280000</v>
       </c>
       <c r="F28" s="3">
-        <v>1044000</v>
+        <v>316000</v>
       </c>
       <c r="G28" s="3">
-        <v>1141000</v>
+        <v>304000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>7937</v>
+        <v>7262</v>
       </c>
       <c r="C33" s="3">
-        <v>10200</v>
+        <v>9225</v>
       </c>
       <c r="D33" s="3">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="E33" s="3">
-        <v>11000</v>
+        <v>11600</v>
       </c>
       <c r="F33" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="G33" s="3">
-        <v>13300</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>262000</v>
+        <v>250000</v>
       </c>
       <c r="C38" s="3">
         <v>299000</v>
       </c>
       <c r="D38" s="3">
-        <v>318000</v>
+        <v>343000</v>
       </c>
       <c r="E38" s="3">
-        <v>378000</v>
+        <v>367000</v>
       </c>
       <c r="F38" s="3">
-        <v>419000</v>
+        <v>427000</v>
       </c>
       <c r="G38" s="3">
-        <v>399000</v>
+        <v>391000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>9394</v>
+        <v>8462</v>
       </c>
       <c r="C3" s="3">
-        <v>17400</v>
+        <v>15900</v>
       </c>
       <c r="D3" s="3">
-        <v>30100</v>
+        <v>27900</v>
       </c>
       <c r="E3" s="3">
-        <v>38500</v>
+        <v>37400</v>
       </c>
       <c r="F3" s="3">
-        <v>39100</v>
+        <v>38400</v>
       </c>
       <c r="G3" s="3">
-        <v>39500</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1231.028224</v>
+        <v>1109.393408</v>
       </c>
       <c r="C4" s="4">
-        <v>2274.361344</v>
+        <v>2088.763392</v>
       </c>
       <c r="D4" s="4">
-        <v>3947.88864</v>
+        <v>3652.190208</v>
       </c>
       <c r="E4" s="4">
-        <v>5041.553408</v>
+        <v>4903.141376</v>
       </c>
       <c r="F4" s="4">
-        <v>5125.439488</v>
+        <v>5028.970496</v>
       </c>
       <c r="G4" s="4">
-        <v>5181.014016</v>
+        <v>5005.901824</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>105.5</v>
+        <v>117.53</v>
       </c>
       <c r="C5" s="4">
-        <v>113.63</v>
+        <v>123.92</v>
       </c>
       <c r="D5" s="4">
-        <v>130.56</v>
+        <v>141.89</v>
       </c>
       <c r="E5" s="4">
-        <v>205.11</v>
+        <v>211.56</v>
       </c>
       <c r="F5" s="4">
-        <v>397.32</v>
+        <v>409.4</v>
       </c>
       <c r="G5" s="4">
-        <v>788.98</v>
+        <v>820.16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D6" s="4">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E6" s="4">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F6" s="4">
-        <v>1336</v>
+        <v>1221</v>
       </c>
       <c r="G6" s="4">
-        <v>2868</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C7" s="4">
         <v>204</v>
       </c>
       <c r="D7" s="4">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E7" s="4">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="F7" s="4">
-        <v>2024</v>
+        <v>1942</v>
       </c>
       <c r="G7" s="4">
-        <v>4359</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>35700</v>
+        <v>36200</v>
       </c>
       <c r="C12" s="3">
-        <v>71900</v>
+        <v>71500</v>
       </c>
       <c r="D12" s="3">
-        <v>142000</v>
+        <v>140000</v>
       </c>
       <c r="E12" s="3">
-        <v>271000</v>
+        <v>269000</v>
       </c>
       <c r="F12" s="3">
-        <v>482000</v>
+        <v>475000</v>
       </c>
       <c r="G12" s="3">
-        <v>774000</v>
+        <v>781000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>145.752064</v>
+        <v>147.849216</v>
       </c>
       <c r="C13" s="4">
-        <v>294.649856</v>
+        <v>292.552704</v>
       </c>
       <c r="D13" s="4">
-        <v>581.95968</v>
+        <v>574.619648</v>
       </c>
       <c r="E13" s="4">
-        <v>1111.49056</v>
+        <v>1102.053376</v>
       </c>
       <c r="F13" s="4">
-        <v>1973.420032</v>
+        <v>1944.059904</v>
       </c>
       <c r="G13" s="4">
-        <v>3169.845248</v>
+        <v>3200.253952</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>27.5332</v>
+        <v>27.33678</v>
       </c>
       <c r="C14" s="4">
-        <v>27.40673</v>
+        <v>27.60332</v>
       </c>
       <c r="D14" s="4">
-        <v>27.72106</v>
+        <v>28.13304</v>
       </c>
       <c r="E14" s="4">
-        <v>28.84652</v>
+        <v>29.31417</v>
       </c>
       <c r="F14" s="4">
-        <v>32.19637</v>
+        <v>32.69987</v>
       </c>
       <c r="G14" s="4">
-        <v>40.59279</v>
+        <v>39.98754</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -686,19 +686,19 @@
         <v>44.288</v>
       </c>
       <c r="C15" s="4">
-        <v>44.288</v>
+        <v>44.8</v>
       </c>
       <c r="D15" s="4">
-        <v>45.312</v>
+        <v>45.824</v>
       </c>
       <c r="E15" s="4">
-        <v>48.896</v>
+        <v>49.408</v>
       </c>
       <c r="F15" s="4">
-        <v>59.648</v>
+        <v>60.16</v>
       </c>
       <c r="G15" s="4">
-        <v>82.432</v>
+        <v>81.408</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>45.824</v>
+        <v>45.312</v>
       </c>
       <c r="C16" s="4">
-        <v>46.848</v>
+        <v>47.36</v>
       </c>
       <c r="D16" s="4">
-        <v>53.504</v>
+        <v>52.992</v>
       </c>
       <c r="E16" s="4">
-        <v>63.232</v>
+        <v>63.744</v>
       </c>
       <c r="F16" s="4">
         <v>75.264</v>
       </c>
       <c r="G16" s="4">
-        <v>102.912</v>
+        <v>100.864</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,19 +760,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>12000</v>
+        <v>9846</v>
       </c>
       <c r="C21" s="3">
-        <v>18100</v>
+        <v>14600</v>
       </c>
       <c r="D21" s="3">
-        <v>22800</v>
+        <v>18600</v>
       </c>
       <c r="E21" s="3">
-        <v>26900</v>
+        <v>20700</v>
       </c>
       <c r="F21" s="3">
-        <v>29300</v>
+        <v>23000</v>
       </c>
       <c r="G21" s="3">
         <v>24200</v>
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1579.155456</v>
+        <v>1290.797056</v>
       </c>
       <c r="C22" s="4">
-        <v>2375.02464</v>
+        <v>1910.505472</v>
       </c>
       <c r="D22" s="4">
-        <v>2982.150144</v>
+        <v>2434.793472</v>
       </c>
       <c r="E22" s="4">
-        <v>3520.069632</v>
+        <v>2717.908992</v>
       </c>
       <c r="F22" s="4">
-        <v>3834.642432</v>
+        <v>3017.801728</v>
       </c>
       <c r="G22" s="4">
-        <v>3177.18528</v>
+        <v>3166.69952</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>49.98</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="C23" s="4">
-        <v>51.12</v>
+        <v>76.75</v>
       </c>
       <c r="D23" s="4">
-        <v>55.24</v>
+        <v>105.51</v>
       </c>
       <c r="E23" s="4">
-        <v>79.20999999999999</v>
+        <v>193.09</v>
       </c>
       <c r="F23" s="4">
-        <v>190.42</v>
+        <v>382.65</v>
       </c>
       <c r="G23" s="4">
-        <v>574.36</v>
+        <v>872.6799999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D24" s="4">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="E24" s="4">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="F24" s="4">
-        <v>310</v>
+        <v>685</v>
       </c>
       <c r="G24" s="4">
-        <v>1893</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C25" s="4">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D25" s="4">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="E25" s="4">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="F25" s="4">
-        <v>392</v>
+        <v>791</v>
       </c>
       <c r="G25" s="4">
-        <v>2540</v>
+        <v>26608</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>239000</v>
+        <v>186000</v>
       </c>
       <c r="C30" s="3">
-        <v>423000</v>
+        <v>313000</v>
       </c>
       <c r="D30" s="3">
-        <v>630000</v>
+        <v>450000</v>
       </c>
       <c r="E30" s="3">
-        <v>771000</v>
+        <v>603000</v>
       </c>
       <c r="F30" s="3">
-        <v>685000</v>
+        <v>540000</v>
       </c>
       <c r="G30" s="3">
-        <v>680000</v>
+        <v>631000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>979.369984</v>
+        <v>762.314752</v>
       </c>
       <c r="C31" s="4">
-        <v>1732.247552</v>
+        <v>1281.359872</v>
       </c>
       <c r="D31" s="4">
-        <v>2581.594112</v>
+        <v>1841.299456</v>
       </c>
       <c r="E31" s="4">
-        <v>3158.310912</v>
+        <v>2471.493632</v>
       </c>
       <c r="F31" s="4">
-        <v>2807.037952</v>
+        <v>2212.49536</v>
       </c>
       <c r="G31" s="4">
-        <v>2785.017856</v>
+        <v>2583.691264</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>2.22498</v>
+        <v>2.96683</v>
       </c>
       <c r="C32" s="4">
-        <v>2.38901</v>
+        <v>3.27926</v>
       </c>
       <c r="D32" s="4">
-        <v>2.39453</v>
+        <v>3.76948</v>
       </c>
       <c r="E32" s="4">
-        <v>2.61313</v>
+        <v>5.77241</v>
       </c>
       <c r="F32" s="4">
-        <v>4.92057</v>
+        <v>12.12192</v>
       </c>
       <c r="G32" s="4">
-        <v>16.83237</v>
+        <v>35.20042</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>3.568</v>
+        <v>4.384</v>
       </c>
       <c r="C33" s="4">
-        <v>3.952</v>
+        <v>4.896</v>
       </c>
       <c r="D33" s="4">
-        <v>3.952</v>
+        <v>5.664</v>
       </c>
       <c r="E33" s="4">
-        <v>4.256</v>
+        <v>8.896000000000001</v>
       </c>
       <c r="F33" s="4">
-        <v>9.536</v>
+        <v>21.376</v>
       </c>
       <c r="G33" s="4">
-        <v>55.552</v>
+        <v>36.096</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>4.832</v>
+        <v>6.176</v>
       </c>
       <c r="C34" s="4">
-        <v>5.28</v>
+        <v>6.816</v>
       </c>
       <c r="D34" s="4">
-        <v>5.344</v>
+        <v>7.648000000000001</v>
       </c>
       <c r="E34" s="4">
-        <v>5.92</v>
+        <v>12.096</v>
       </c>
       <c r="F34" s="4">
-        <v>13.248</v>
+        <v>28.288</v>
       </c>
       <c r="G34" s="4">
-        <v>84.48</v>
+        <v>74.23999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>18300</v>
+        <v>15100</v>
       </c>
       <c r="C39" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="D39" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E39" s="3">
         <v>24400</v>
       </c>
-      <c r="E39" s="3">
-        <v>24700</v>
-      </c>
       <c r="F39" s="3">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="G39" s="3">
-        <v>25100</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>2397.044736</v>
+        <v>1973.420032</v>
       </c>
       <c r="C40" s="4">
-        <v>3233.808384</v>
+        <v>3253.731328</v>
       </c>
       <c r="D40" s="4">
-        <v>3196.059648</v>
+        <v>3158.310912</v>
       </c>
       <c r="E40" s="4">
-        <v>3244.294144</v>
+        <v>3200.253952</v>
       </c>
       <c r="F40" s="4">
-        <v>3278.897152</v>
+        <v>3217.031168</v>
       </c>
       <c r="G40" s="4">
-        <v>3291.480064</v>
+        <v>3169.845248</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>54.35</v>
+        <v>65.97</v>
       </c>
       <c r="C41" s="4">
-        <v>79.76000000000001</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="D41" s="4">
-        <v>162.17</v>
+        <v>164.65</v>
       </c>
       <c r="E41" s="4">
-        <v>320.93</v>
+        <v>325.32</v>
       </c>
       <c r="F41" s="4">
-        <v>637.24</v>
+        <v>642.9</v>
       </c>
       <c r="G41" s="4">
-        <v>1270.21</v>
+        <v>1313.02</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D42" s="4">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="E42" s="4">
-        <v>1516</v>
+        <v>1369</v>
       </c>
       <c r="F42" s="4">
-        <v>3752</v>
+        <v>3228</v>
       </c>
       <c r="G42" s="4">
-        <v>7046</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D43" s="4">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E43" s="4">
-        <v>2073</v>
+        <v>1827</v>
       </c>
       <c r="F43" s="4">
-        <v>4555</v>
+        <v>4228</v>
       </c>
       <c r="G43" s="4">
-        <v>7898</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1198,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>462000</v>
+        <v>386000</v>
       </c>
       <c r="C48" s="3">
-        <v>790000</v>
+        <v>686000</v>
       </c>
       <c r="D48" s="3">
-        <v>776000</v>
+        <v>760000</v>
       </c>
       <c r="E48" s="3">
-        <v>797000</v>
+        <v>777000</v>
       </c>
       <c r="F48" s="3">
-        <v>802000</v>
+        <v>789000</v>
       </c>
       <c r="G48" s="3">
-        <v>804000</v>
+        <v>792000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>1890.582528</v>
+        <v>1579.155456</v>
       </c>
       <c r="C49" s="4">
-        <v>3233.808384</v>
+        <v>2811.232256</v>
       </c>
       <c r="D49" s="4">
-        <v>3177.18528</v>
+        <v>3112.173568</v>
       </c>
       <c r="E49" s="4">
-        <v>3263.168512</v>
+        <v>3181.379584</v>
       </c>
       <c r="F49" s="4">
-        <v>3283.091456</v>
+        <v>3231.711232</v>
       </c>
       <c r="G49" s="4">
-        <v>3291.480064</v>
+        <v>3244.294144</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>1.94216</v>
+        <v>2.37846</v>
       </c>
       <c r="C50" s="4">
-        <v>2.2863</v>
+        <v>2.68668</v>
       </c>
       <c r="D50" s="4">
-        <v>4.852270000000001</v>
+        <v>5.00278</v>
       </c>
       <c r="E50" s="4">
-        <v>9.763030000000001</v>
+        <v>9.988899999999999</v>
       </c>
       <c r="F50" s="4">
-        <v>19.67969</v>
+        <v>19.70711</v>
       </c>
       <c r="G50" s="4">
-        <v>39.52358</v>
+        <v>39.92726</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,22 +1267,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>0.908</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="C51" s="4">
-        <v>0.972</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D51" s="4">
-        <v>1.064</v>
+        <v>1.128</v>
       </c>
       <c r="E51" s="4">
-        <v>1.192</v>
+        <v>2.024</v>
       </c>
       <c r="F51" s="4">
-        <v>1.256</v>
+        <v>6.048</v>
       </c>
       <c r="G51" s="4">
-        <v>1.368</v>
+        <v>3.504</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>74.23999999999999</v>
+        <v>111.104</v>
       </c>
       <c r="C52" s="4">
-        <v>93.696</v>
+        <v>126.464</v>
       </c>
       <c r="D52" s="4">
-        <v>138.24</v>
+        <v>168.96</v>
       </c>
       <c r="E52" s="4">
-        <v>257.024</v>
+        <v>354.304</v>
       </c>
       <c r="F52" s="4">
-        <v>284.672</v>
+        <v>509.952</v>
       </c>
       <c r="G52" s="4">
-        <v>284.672</v>
+        <v>440.32</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>9570</v>
+        <v>7670</v>
       </c>
       <c r="C57" s="3">
-        <v>13500</v>
+        <v>11300</v>
       </c>
       <c r="D57" s="3">
-        <v>17100</v>
+        <v>13700</v>
       </c>
       <c r="E57" s="3">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="F57" s="3">
-        <v>16800</v>
+        <v>17600</v>
       </c>
       <c r="G57" s="3">
-        <v>18900</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>1254.096896</v>
+        <v>1005.584384</v>
       </c>
       <c r="C58" s="4">
-        <v>1765.801984</v>
+        <v>1475.346432</v>
       </c>
       <c r="D58" s="4">
-        <v>2236.612608</v>
+        <v>1795.162112</v>
       </c>
       <c r="E58" s="4">
-        <v>2222.98112</v>
+        <v>1965.031424</v>
       </c>
       <c r="F58" s="4">
-        <v>2203.058176</v>
+        <v>2310.012928</v>
       </c>
       <c r="G58" s="4">
-        <v>2478.833664</v>
+        <v>2674.917376</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>53.12981</v>
+        <v>72.81511</v>
       </c>
       <c r="C59" s="4">
-        <v>55.11626</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="D59" s="4">
-        <v>56.1767</v>
+        <v>104.93</v>
       </c>
       <c r="E59" s="4">
-        <v>76.48999999999999</v>
+        <v>192.5</v>
       </c>
       <c r="F59" s="4">
-        <v>420.63</v>
+        <v>512.85</v>
       </c>
       <c r="G59" s="4">
-        <v>836.58</v>
+        <v>1136.56</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>56.064</v>
+        <v>76.288</v>
       </c>
       <c r="C60" s="4">
-        <v>58.112</v>
+        <v>86</v>
       </c>
       <c r="D60" s="4">
-        <v>59.648</v>
+        <v>114</v>
       </c>
       <c r="E60" s="4">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="F60" s="4">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G60" s="4">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>58.112</v>
+        <v>80.384</v>
       </c>
       <c r="C61" s="4">
-        <v>62.208</v>
+        <v>90</v>
       </c>
       <c r="D61" s="4">
-        <v>63.232</v>
+        <v>119</v>
       </c>
       <c r="E61" s="4">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="F61" s="4">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="G61" s="4">
-        <v>21365</v>
+        <v>42206</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>264000</v>
+        <v>214000</v>
       </c>
       <c r="C66" s="3">
-        <v>388000</v>
+        <v>322000</v>
       </c>
       <c r="D66" s="3">
-        <v>506000</v>
+        <v>421000</v>
       </c>
       <c r="E66" s="3">
-        <v>542000</v>
+        <v>490000</v>
       </c>
       <c r="F66" s="3">
-        <v>605000</v>
+        <v>581000</v>
       </c>
       <c r="G66" s="3">
-        <v>563000</v>
+        <v>655000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>1082.130432</v>
+        <v>877.658112</v>
       </c>
       <c r="C67" s="4">
-        <v>1588.59264</v>
+        <v>1319.108608</v>
       </c>
       <c r="D67" s="4">
-        <v>2073.034752</v>
+        <v>1723.858944</v>
       </c>
       <c r="E67" s="4">
-        <v>2218.786816</v>
+        <v>2004.877312</v>
       </c>
       <c r="F67" s="4">
-        <v>2476.736512</v>
+        <v>2378.170368</v>
       </c>
       <c r="G67" s="4">
-        <v>2305.818624</v>
+        <v>2681.208832</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>2.01044</v>
+        <v>2.66884</v>
       </c>
       <c r="C68" s="4">
-        <v>2.08489</v>
+        <v>2.83499</v>
       </c>
       <c r="D68" s="4">
-        <v>2.12109</v>
+        <v>3.37243</v>
       </c>
       <c r="E68" s="4">
-        <v>2.34079</v>
+        <v>5.92776</v>
       </c>
       <c r="F68" s="4">
-        <v>4.81608</v>
+        <v>14.54189</v>
       </c>
       <c r="G68" s="4">
-        <v>30.10735</v>
+        <v>34.95616</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>2.896</v>
+        <v>3.568</v>
       </c>
       <c r="C69" s="4">
-        <v>3.216</v>
+        <v>4.128</v>
       </c>
       <c r="D69" s="4">
-        <v>3.344</v>
+        <v>4.896</v>
       </c>
       <c r="E69" s="4">
-        <v>3.792</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="F69" s="4">
-        <v>8.512</v>
+        <v>20</v>
       </c>
       <c r="G69" s="4">
-        <v>52</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>4.192</v>
+        <v>5.472</v>
       </c>
       <c r="C70" s="4">
-        <v>4.64</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="D70" s="4">
-        <v>4.576000000000001</v>
+        <v>6.88</v>
       </c>
       <c r="E70" s="4">
-        <v>5.792</v>
+        <v>12.096</v>
       </c>
       <c r="F70" s="4">
-        <v>11.968</v>
+        <v>29</v>
       </c>
       <c r="G70" s="4">
-        <v>178</v>
+        <v>126.464</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1014</v>
+        <v>1045</v>
       </c>
       <c r="C3" s="3">
-        <v>2841</v>
+        <v>4173</v>
       </c>
       <c r="D3" s="3">
-        <v>4883</v>
+        <v>5197</v>
       </c>
       <c r="E3" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="F3" s="3">
-        <v>11900</v>
+        <v>28200</v>
       </c>
       <c r="G3" s="3">
-        <v>18300</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>10700</v>
+        <v>26300</v>
       </c>
       <c r="C8" s="3">
-        <v>24600</v>
+        <v>22600</v>
       </c>
       <c r="D8" s="3">
-        <v>42200</v>
+        <v>41600</v>
       </c>
       <c r="E8" s="3">
-        <v>89900</v>
+        <v>83500</v>
       </c>
       <c r="F8" s="3">
-        <v>159000</v>
+        <v>160000</v>
       </c>
       <c r="G8" s="3">
-        <v>255000</v>
+        <v>256000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>11000</v>
+        <v>2938</v>
       </c>
       <c r="C13" s="3">
-        <v>17200</v>
+        <v>3540</v>
       </c>
       <c r="D13" s="3">
-        <v>20100</v>
+        <v>3696</v>
       </c>
       <c r="E13" s="3">
-        <v>4796</v>
+        <v>3560</v>
       </c>
       <c r="F13" s="3">
-        <v>3826</v>
+        <v>3674</v>
       </c>
       <c r="G13" s="3">
-        <v>4117</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>372000</v>
+        <v>364000</v>
       </c>
       <c r="C18" s="3">
-        <v>487000</v>
+        <v>466000</v>
       </c>
       <c r="D18" s="3">
-        <v>583000</v>
+        <v>572000</v>
       </c>
       <c r="E18" s="3">
-        <v>623000</v>
+        <v>599000</v>
       </c>
       <c r="F18" s="3">
-        <v>638000</v>
+        <v>648000</v>
       </c>
       <c r="G18" s="3">
-        <v>644000</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3282</v>
+        <v>3459</v>
       </c>
       <c r="C23" s="3">
-        <v>5516</v>
+        <v>5512</v>
       </c>
       <c r="D23" s="3">
-        <v>8591</v>
+        <v>8747</v>
       </c>
       <c r="E23" s="3">
-        <v>10200</v>
+        <v>9651</v>
       </c>
       <c r="F23" s="3">
-        <v>9088</v>
+        <v>9295</v>
       </c>
       <c r="G23" s="3">
-        <v>19300</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>113000</v>
+        <v>152000</v>
       </c>
       <c r="C28" s="3">
-        <v>168000</v>
+        <v>180000</v>
       </c>
       <c r="D28" s="3">
-        <v>260000</v>
+        <v>271000</v>
       </c>
       <c r="E28" s="3">
-        <v>296000</v>
+        <v>300000</v>
       </c>
       <c r="F28" s="3">
-        <v>298000</v>
+        <v>281000</v>
       </c>
       <c r="G28" s="3">
-        <v>629000</v>
+        <v>767000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -777,19 +777,19 @@
         <v>10600</v>
       </c>
       <c r="C33" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="D33" s="3">
         <v>13800</v>
       </c>
       <c r="E33" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="F33" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G33" s="3">
         <v>14800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>15100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>314000</v>
+        <v>309000</v>
       </c>
       <c r="C38" s="3">
-        <v>380000</v>
+        <v>379000</v>
       </c>
       <c r="D38" s="3">
-        <v>430000</v>
+        <v>434000</v>
       </c>
       <c r="E38" s="3">
-        <v>441000</v>
+        <v>436000</v>
       </c>
       <c r="F38" s="3">
-        <v>472000</v>
+        <v>467000</v>
       </c>
       <c r="G38" s="3">
-        <v>480000</v>
+        <v>482000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1045</v>
+        <v>8605</v>
       </c>
       <c r="C3" s="3">
-        <v>4173</v>
+        <v>15900</v>
       </c>
       <c r="D3" s="3">
-        <v>5197</v>
+        <v>23000</v>
       </c>
       <c r="E3" s="3">
-        <v>10600</v>
+        <v>29600</v>
       </c>
       <c r="F3" s="3">
-        <v>28200</v>
+        <v>29600</v>
       </c>
       <c r="G3" s="3">
-        <v>11600</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>26300</v>
+        <v>4063</v>
       </c>
       <c r="C8" s="3">
-        <v>22600</v>
+        <v>8485</v>
       </c>
       <c r="D8" s="3">
-        <v>41600</v>
+        <v>16900</v>
       </c>
       <c r="E8" s="3">
-        <v>83500</v>
+        <v>161000</v>
       </c>
       <c r="F8" s="3">
-        <v>160000</v>
+        <v>267000</v>
       </c>
       <c r="G8" s="3">
-        <v>256000</v>
+        <v>377000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>2938</v>
+        <v>13800</v>
       </c>
       <c r="C13" s="3">
-        <v>3540</v>
+        <v>17100</v>
       </c>
       <c r="D13" s="3">
-        <v>3696</v>
+        <v>18700</v>
       </c>
       <c r="E13" s="3">
-        <v>3560</v>
+        <v>19500</v>
       </c>
       <c r="F13" s="3">
-        <v>3674</v>
+        <v>22000</v>
       </c>
       <c r="G13" s="3">
-        <v>4099</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>364000</v>
+        <v>318000</v>
       </c>
       <c r="C18" s="3">
-        <v>466000</v>
+        <v>478000</v>
       </c>
       <c r="D18" s="3">
-        <v>572000</v>
+        <v>555000</v>
       </c>
       <c r="E18" s="3">
-        <v>599000</v>
+        <v>617000</v>
       </c>
       <c r="F18" s="3">
         <v>648000</v>
       </c>
       <c r="G18" s="3">
-        <v>188000</v>
+        <v>664000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3459</v>
+        <v>3379</v>
       </c>
       <c r="C23" s="3">
-        <v>5512</v>
+        <v>5785</v>
       </c>
       <c r="D23" s="3">
-        <v>8747</v>
+        <v>7846</v>
       </c>
       <c r="E23" s="3">
-        <v>9651</v>
+        <v>8705</v>
       </c>
       <c r="F23" s="3">
-        <v>9295</v>
+        <v>8419</v>
       </c>
       <c r="G23" s="3">
-        <v>20700</v>
+        <v>8443</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>152000</v>
+        <v>115000</v>
       </c>
       <c r="C28" s="3">
-        <v>180000</v>
+        <v>184000</v>
       </c>
       <c r="D28" s="3">
-        <v>271000</v>
+        <v>301000</v>
       </c>
       <c r="E28" s="3">
-        <v>300000</v>
+        <v>312000</v>
       </c>
       <c r="F28" s="3">
-        <v>281000</v>
+        <v>293000</v>
       </c>
       <c r="G28" s="3">
-        <v>767000</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
+        <v>9225</v>
+      </c>
+      <c r="C33" s="3">
         <v>10600</v>
       </c>
-      <c r="C33" s="3">
-        <v>12700</v>
-      </c>
       <c r="D33" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="E33" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="F33" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="G33" s="3">
-        <v>14800</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>309000</v>
+        <v>341000</v>
       </c>
       <c r="C38" s="3">
-        <v>379000</v>
+        <v>428000</v>
       </c>
       <c r="D38" s="3">
-        <v>434000</v>
+        <v>512000</v>
       </c>
       <c r="E38" s="3">
-        <v>436000</v>
+        <v>551000</v>
       </c>
       <c r="F38" s="3">
-        <v>467000</v>
+        <v>583000</v>
       </c>
       <c r="G38" s="3">
-        <v>482000</v>
+        <v>519000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/ext4_summary.xlsx
+++ b/rfuse/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>8605</v>
+        <v>8462</v>
       </c>
       <c r="C3" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="D3" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="E3" s="3">
-        <v>29600</v>
+        <v>28900</v>
       </c>
       <c r="F3" s="3">
-        <v>29600</v>
+        <v>31600</v>
       </c>
       <c r="G3" s="3">
-        <v>24400</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4063</v>
+        <v>4253</v>
       </c>
       <c r="C8" s="3">
-        <v>8485</v>
+        <v>8078</v>
       </c>
       <c r="D8" s="3">
-        <v>16900</v>
+        <v>16600</v>
       </c>
       <c r="E8" s="3">
-        <v>161000</v>
+        <v>33800</v>
       </c>
       <c r="F8" s="3">
-        <v>267000</v>
+        <v>263000</v>
       </c>
       <c r="G8" s="3">
-        <v>377000</v>
+        <v>369000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>13800</v>
+        <v>11300</v>
       </c>
       <c r="C13" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="D13" s="3">
-        <v>18700</v>
+        <v>17400</v>
       </c>
       <c r="E13" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="F13" s="3">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="G13" s="3">
-        <v>21200</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>318000</v>
+        <v>386000</v>
       </c>
       <c r="C18" s="3">
-        <v>478000</v>
+        <v>485000</v>
       </c>
       <c r="D18" s="3">
-        <v>555000</v>
+        <v>572000</v>
       </c>
       <c r="E18" s="3">
-        <v>617000</v>
+        <v>620000</v>
       </c>
       <c r="F18" s="3">
-        <v>648000</v>
+        <v>618000</v>
       </c>
       <c r="G18" s="3">
-        <v>664000</v>
+        <v>631000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3379</v>
+        <v>3605</v>
       </c>
       <c r="C23" s="3">
-        <v>5785</v>
+        <v>5801</v>
       </c>
       <c r="D23" s="3">
-        <v>7846</v>
+        <v>8258</v>
       </c>
       <c r="E23" s="3">
-        <v>8705</v>
+        <v>9214</v>
       </c>
       <c r="F23" s="3">
-        <v>8419</v>
+        <v>6279</v>
       </c>
       <c r="G23" s="3">
-        <v>8443</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>115000</v>
+        <v>120000</v>
       </c>
       <c r="C28" s="3">
-        <v>184000</v>
+        <v>182000</v>
       </c>
       <c r="D28" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E28" s="3">
         <v>301000</v>
       </c>
-      <c r="E28" s="3">
-        <v>312000</v>
-      </c>
       <c r="F28" s="3">
-        <v>293000</v>
+        <v>273000</v>
       </c>
       <c r="G28" s="3">
-        <v>272000</v>
+        <v>354000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>9225</v>
+        <v>8982</v>
       </c>
       <c r="C33" s="3">
-        <v>10600</v>
+        <v>11800</v>
       </c>
       <c r="D33" s="3">
-        <v>11900</v>
+        <v>12600</v>
       </c>
       <c r="E33" s="3">
-        <v>13600</v>
+        <v>12000</v>
       </c>
       <c r="F33" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="G33" s="3">
-        <v>13000</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>341000</v>
+        <v>331000</v>
       </c>
       <c r="C38" s="3">
         <v>428000</v>
       </c>
       <c r="D38" s="3">
-        <v>512000</v>
+        <v>500000</v>
       </c>
       <c r="E38" s="3">
-        <v>551000</v>
+        <v>545000</v>
       </c>
       <c r="F38" s="3">
-        <v>583000</v>
+        <v>570000</v>
       </c>
       <c r="G38" s="3">
-        <v>519000</v>
+        <v>522000</v>
       </c>
     </row>
   </sheetData>
